--- a/csharp_file_dependencies.xlsx
+++ b/csharp_file_dependencies.xlsx
@@ -14,32 +14,77 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
   <si>
     <t>repo</t>
   </si>
   <si>
-    <t>Number of files</t>
+    <t>Number of java_files</t>
   </si>
   <si>
-    <t>Number of Modules</t>
+    <t>Number of java_Modules</t>
   </si>
   <si>
-    <t>Number of file Dependencies</t>
+    <t>Number of java_file Dependencies</t>
   </si>
   <si>
-    <t>Number of Module Dependencies</t>
+    <t>Number of java_Module Dependencies</t>
   </si>
   <si>
-    <t>dependency_list</t>
+    <t>java_dependency_list</t>
+  </si>
+  <si>
+    <t>Number of py_files</t>
+  </si>
+  <si>
+    <t>Number of py_Modules</t>
+  </si>
+  <si>
+    <t>Number of py_file Dependencies</t>
+  </si>
+  <si>
+    <t>Number of py_Module Dependencies</t>
+  </si>
+  <si>
+    <t>py_dependency_list</t>
+  </si>
+  <si>
+    <t>Number of cs_files</t>
+  </si>
+  <si>
+    <t>Number of cs_Modules</t>
+  </si>
+  <si>
+    <t>Number of cs_file Dependencies</t>
+  </si>
+  <si>
+    <t>Number of cs_Module Dependencies</t>
+  </si>
+  <si>
+    <t>cs_dependency_list</t>
+  </si>
+  <si>
+    <t>Number of cpp_files</t>
+  </si>
+  <si>
+    <t>Number of cpp_Modules</t>
+  </si>
+  <si>
+    <t>Number of cpp_file Dependencies</t>
+  </si>
+  <si>
+    <t>Number of cpp_Module Dependencies</t>
+  </si>
+  <si>
+    <t>cpp_dependency_list</t>
   </si>
   <si>
     <t>CsharpBlankProject</t>
   </si>
   <si>
-    <t xml:space="preserve">CsharpBlankProject/workers/Managed/Managed/Startup.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-CsharpBlankProject/workers/External/External/Startup.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+    <t xml:space="preserve">CsharpBlankProject/workers/Managed/Managed/Startup.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
+---
+CsharpBlankProject/workers/External/External/Startup.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 </t>
   </si>
@@ -83,7 +128,7 @@
 ---
 compilify/Web/App_Start/DbInitializer.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-compilify/Web/App_Start/BundleConfig.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+compilify/Web/App_Start/BundleConfig.cs: (# of file-dependencies: 16, # of module-dependencies: 0)
 ---
 compilify/Web/Models/DocumentModel.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -355,7 +400,7 @@
 ---
 O2.Platform.Projects/UnitTests/UnitTests.O2Platform.exe/Properties/AssemblyInfo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-O2.Platform.Projects/UnitTests/UnitTests.Website.O2Platform/Test_Mvc_Setup.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+O2.Platform.Projects/UnitTests/UnitTests.Website.O2Platform/Test_Mvc_Setup.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 O2.Platform.Projects/UnitTests/UnitTests.Website.O2Platform/Properties/AssemblyInfo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -365,7 +410,7 @@
 ---
 O2.Platform.Projects/O2.VisualStudio.AddIn/AssemblyInfo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-O2.Platform.Projects/O2.VisualStudio.AddIn/Connect.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+O2.Platform.Projects/O2.VisualStudio.AddIn/Connect.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 O2.Platform.Projects/Website.O2Platform/Global.asax.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -771,29 +816,29 @@
     <t>c-sharp-machine-learning</t>
   </si>
   <si>
-    <t xml:space="preserve">c-sharp-machine-learning/ch.6/Clustering.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-c-sharp-machine-learning/ch.6/FeatureEngineering.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+    <t xml:space="preserve">c-sharp-machine-learning/ch.6/Clustering.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
+---
+c-sharp-machine-learning/ch.6/FeatureEngineering.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 c-sharp-machine-learning/ch.6/DataAnalyzer.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
 c-sharp-machine-learning/ch.3/TwitterSentimentModeling.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-c-sharp-machine-learning/ch.3/DataProcessor.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-c-sharp-machine-learning/ch.3/TwitterTokenizer.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+c-sharp-machine-learning/ch.3/DataProcessor.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+c-sharp-machine-learning/ch.3/TwitterTokenizer.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 c-sharp-machine-learning/ch.3/DataAnalyzer.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-c-sharp-machine-learning/ch.7/Modeling.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-c-sharp-machine-learning/ch.7/DataAnalyzer.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-c-sharp-machine-learning/ch.2/EmailParser.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+c-sharp-machine-learning/ch.7/Modeling.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
+---
+c-sharp-machine-learning/ch.7/DataAnalyzer.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
+---
+c-sharp-machine-learning/ch.2/EmailParser.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 c-sharp-machine-learning/ch.2/Modeling.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-c-sharp-machine-learning/ch.2/DataAnalyzer.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+c-sharp-machine-learning/ch.2/DataAnalyzer.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 c-sharp-machine-learning/ch.11/ClusteringAlgorithmReview.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -801,39 +846,39 @@
 ---
 c-sharp-machine-learning/ch.11/RegressionModelReview.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-c-sharp-machine-learning/ch.5/FeatureEngineering.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-c-sharp-machine-learning/ch.5/Modeling.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-c-sharp-machine-learning/ch.5/DataAnalyzer.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-c-sharp-machine-learning/ch.8/FeatureEngineering.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-c-sharp-machine-learning/ch.8/Modeling.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-c-sharp-machine-learning/ch.8/DataAnalyzer.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-c-sharp-machine-learning/ch.10/FeatureEngineering.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-c-sharp-machine-learning/ch.10/Modeling.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+c-sharp-machine-learning/ch.5/FeatureEngineering.cs: (# of file-dependencies: 3, # of module-dependencies: 0)
+---
+c-sharp-machine-learning/ch.5/Modeling.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
+---
+c-sharp-machine-learning/ch.5/DataAnalyzer.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+c-sharp-machine-learning/ch.8/FeatureEngineering.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
+---
+c-sharp-machine-learning/ch.8/Modeling.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+c-sharp-machine-learning/ch.8/DataAnalyzer.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+c-sharp-machine-learning/ch.10/FeatureEngineering.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
+---
+c-sharp-machine-learning/ch.10/Modeling.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 c-sharp-machine-learning/ch.10/DataAnalyzer.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-c-sharp-machine-learning/ch.1/DeedleApp.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+c-sharp-machine-learning/ch.1/DeedleApp.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 c-sharp-machine-learning/ch.1/SampleAccordNETApp.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-c-sharp-machine-learning/ch.4/DataPrep.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-c-sharp-machine-learning/ch.4/FeatureEngineer.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-c-sharp-machine-learning/ch.4/Modeling.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-c-sharp-machine-learning/ch.4/DataAnalyzer.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-c-sharp-machine-learning/ch.9/FeatureEngineering.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-c-sharp-machine-learning/ch.9/Modeling.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+c-sharp-machine-learning/ch.4/DataPrep.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
+---
+c-sharp-machine-learning/ch.4/FeatureEngineer.cs: (# of file-dependencies: 4, # of module-dependencies: 0)
+---
+c-sharp-machine-learning/ch.4/Modeling.cs: (# of file-dependencies: 3, # of module-dependencies: 0)
+---
+c-sharp-machine-learning/ch.4/DataAnalyzer.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+c-sharp-machine-learning/ch.9/FeatureEngineering.cs: (# of file-dependencies: 4, # of module-dependencies: 0)
+---
+c-sharp-machine-learning/ch.9/Modeling.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 c-sharp-machine-learning/ch.9/DataAnalyzer.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -1083,7 +1128,7 @@
 ---
 CustomValidation/demo/AspNetCore/Startup.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-CustomValidation/demo/AspNetCore/AppSettings.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+CustomValidation/demo/AspNetCore/AppSettings.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 CustomValidation/demo/AspNetCore/Program.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -1737,7 +1782,7 @@
 ---
 c-raft/Chraft/Interfaces/Containers/ContainerFactory.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-c-raft/Chraft/Utils/BanSystem.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+c-raft/Chraft/Utils/BanSystem.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 c-raft/Chraft/Utils/ItemDb.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -1745,11 +1790,11 @@
 ---
 c-raft/Chraft/Utils/PlayerNBTConverter.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-c-raft/Chraft/Utils/PermissionHandler.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+c-raft/Chraft/Utils/PermissionHandler.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 c-raft/Chraft/Utils/Config/Configuration.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-c-raft/Chraft/Utils/Config/ChraftConfig.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+c-raft/Chraft/Utils/Config/ChraftConfig.cs: (# of file-dependencies: 6, # of module-dependencies: 0)
 ---
 c-raft/Chraft/Persistence/ClientSurrogate.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -1841,7 +1886,7 @@
 ---
 cslightcore/windows/CSEvilTestor/Program.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-cslightcore/windows/CSEvilTestor/Form1.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+cslightcore/windows/CSEvilTestor/Form1.cs: (# of file-dependencies: 9, # of module-dependencies: 0)
 ---
 cslightcore/windows/CSEvilTestor/TestReg.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -2101,7 +2146,7 @@
 ---
 TeamProject-POS-PointOfSales/POS_Login/Views/LoginView.xaml.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-TeamProject-POS-PointOfSales/POS_Login/ViewModels/LoginViewModel.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+TeamProject-POS-PointOfSales/POS_Login/ViewModels/LoginViewModel.cs: (# of file-dependencies: 4, # of module-dependencies: 0)
 ---
 TeamProject-POS-PointOfSales/POS-CodedUITests/UIMap.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -2213,7 +2258,7 @@
 ---
 TeamProject-POS-PointOfSales/POS_SellersApp/ViewModels/PaimentViewModel.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-TeamProject-POS-PointOfSales/POS_SellersApp/ViewModels/SellersMainWindowViewModel.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+TeamProject-POS-PointOfSales/POS_SellersApp/ViewModels/SellersMainWindowViewModel.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 </t>
   </si>
@@ -2387,7 +2432,7 @@
 ---
 unity-midi/Assets/UnityMidi/CSharpSynth/Source/AudioSynthesis/Synthesis/VoiceManager.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-unity-midi/Assets/UnityMidi/CSharpSynth/Source/AudioSynthesis/Synthesis/Synthesizer.Main.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+unity-midi/Assets/UnityMidi/CSharpSynth/Source/AudioSynthesis/Synthesis/Synthesizer.Main.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 unity-midi/Assets/UnityMidi/CSharpSynth/Source/AudioSynthesis/Sfz/SfzReader.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -2667,7 +2712,7 @@
 ---
 Unsolved-csharp-projects/Unsolved/AzureWebServiceA/AzureCarRetailDBWebService/App_Start/RouteConfig.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-Unsolved-csharp-projects/Unsolved/AzureWebServiceA/AzureCarRetailDBWebService/App_Start/BundleConfig.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+Unsolved-csharp-projects/Unsolved/AzureWebServiceA/AzureCarRetailDBWebService/App_Start/BundleConfig.cs: (# of file-dependencies: 15, # of module-dependencies: 0)
 ---
 Unsolved-csharp-projects/Unsolved/AzureWebServiceA/AzureCarRetailDBWebService/Areas/HelpPage/HelpPageConfigurationExtensions.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -2917,7 +2962,7 @@
 ---
 Unsolved-csharp-projects/Unsolved/ExamAdmV22/ExamAdmV22/View/MainPage.xaml.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-Unsolved-csharp-project</t>
+Unsolved-csharp-projec</t>
   </si>
   <si>
     <t>CypherCore</t>
@@ -3683,11 +3728,11 @@
     <t>DataMining-Project-CSharp</t>
   </si>
   <si>
-    <t xml:space="preserve">DataMining-Project-CSharp/FPAlgo/FPAlgo/FPAlgo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+    <t xml:space="preserve">DataMining-Project-CSharp/FPAlgo/FPAlgo/FPAlgo.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 DataMining-Project-CSharp/FPAlgo/FPAlgo/Properties/AssemblyInfo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-DataMining-Project-CSharp/Apriori/Apriori/Apriori.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+DataMining-Project-CSharp/Apriori/Apriori/Apriori.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 DataMining-Project-CSharp/Apriori/Apriori/Properties/AssemblyInfo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -3703,7 +3748,7 @@
 ---
 FileDB/MvcTest/Global.asax.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-FileDB/MvcTest/Controllers/FileDBController.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+FileDB/MvcTest/Controllers/FileDBController.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 FileDB/MvcTest/Properties/AssemblyInfo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -3859,7 +3904,7 @@
 ---
 C-8-and-.NET-Core-3-Projects-Using-Azure-Second-Edition/Chapter01_OldApp/eBookManager.Helper/ExtensionMethods.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
-C-8-and-.NET-Core-3-Projects-Using-Azure-Second-Edition/Chapter01_OldApp/eBookManager/ImportBooks.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
+C-8-and-.NET-Core-3-Projects-Using-Azure-Second-Edition/Chapter01_OldApp/eBookManager/ImportBooks.cs: (# of file-dependencies: 8, # of module-dependencies: 0)
 ---
 C-8-and-.NET-Core-3-Projects-Using-Azure-Second-Edition/Chapter01_OldApp/eBookManager/ImportBooks.Designer.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -3867,7 +3912,7 @@
 ---
 C-8-and-.NET-Core-3-Projects-Using-Azure-Second-Edition/Chapter01_OldApp/eBookManager/eBookManager.Designer.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-C-8-and-.NET-Core-3-Projects-Using-Azure-Second-Edition/Chapter01_OldApp/eBookManager/eBookManager.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
+C-8-and-.NET-Core-3-Projects-Using-Azure-Second-Edition/Chapter01_OldApp/eBookManager/eBookManager.cs: (# of file-dependencies: 14, # of module-dependencies: 0)
 ---
 C-8-and-.NET-Core-3-Projects-Using-Azure-Second-Edition/Chapter01_OldApp/eBookManager/Models/Item.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -3881,7 +3926,7 @@
 ---
 C-8-and-.NET-Core-3-Projects-Using-Azure-Second-Edition/Chapter08/SalesOrder.UnitTests/SalesOrderProcessorTests/PrcoessEachMessageTest.cs: (# of file-dependencies: 3, # of module-dependencies: 0)
 ---
-C-8-and-.NET-Core-3-Projects-Using-Azure-Second-Edition/Chapter08/SalesOrder.UnitTests/ProductRepositoryTests/GetProductDataTest.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
+C-8-and-.NET-Core-3-Projects-Using-Azure-Second-Edition/Chapter08/SalesOrder.UnitTests/ProductRepositoryTests/GetProductDataTest.cs: (# of file-dependencies: 3, # of module-dependencies: 0)
 ---
 C-8-and-.NET-Core-3-Projects-Using-Azure-Second-Edition/Chapter08/SalesOrder.UnitTests/Generate/GenerateSalesOrdersTest.cs: (# of file-dependencies: 4, # of module-dependencies: 0)
 ---
@@ -3915,7 +3960,7 @@
 ---
 C-8-and-.NET-Core-3-Projects-Using-Azure-Second-Edition/Chapter08/SalesOrder.Data/Products/ProductService.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
-C-8-and-.NET-Core-3-Projects-Using-Azure-Second-Edition/Chapter08/SalesOrder.Data/Products/ProductRepository.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
+C-8-and-.NET-Core-3-Projects-Using-Azure-Second-Edition/Chapter08/SalesOrder.Data/Products/ProductRepository.cs: (# of file-dependencies: 3, # of module-dependencies: 0)
 ---
 C-8-and-.NET-Core-3-Projects-Using-Azure-Second-Edition/Chapter08/SalesOrder.Data/Products/IProductRepository.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -3959,7 +4004,7 @@
 ---
 C-8-and-.NET-Core-3-Projects-Using-Azure-Second-Edition/Chapter07/PhotoStorage.WindowsService/Helpers/FileHelper.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-C-8-and-.NET-Core-3-Projects-Using-Azure-Second-Edition/Chapter07/PhotoStorage.WindowsService/Configuration/ConfigurationService.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+C-8-and-.NET-Core-3-Projects-Using-Azure-Second-Edition/Chapter07/PhotoStorage.WindowsService/Configuration/ConfigurationService.cs: (# of file-dependencies: 5, # of module-dependencies: 0)
 ---
 C-8-and-.NET-Core-3-Projects-Using-Azure-Second-Edition/Chapter07/PhotoStorage.WindowsService/Models/AppSettings.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -3971,7 +4016,7 @@
 ---
 C-8-and-.NET-Core-3-Projects-Using-Azure-Second-Edition/Chapter10/Boris/Boris/ConfigurationCredentialProvider.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-C-8-and-.NET-Core-3-Projects-Using-Azure-Second-Edition/Chapter10/Boris/Boris/Bots/BorisBot.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+C-8-and-.NET-Core-3-Projects-Using-Azure-Second-Edition/Chapter10/Boris/Boris/Bots/BorisBot.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 C-8-and-.NET-Core-3-Projects-Using-Azure-Second-Edition/Chapter10/Boris/Boris/Controllers/BotController.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -4001,7 +4046,7 @@
 ---
 C-8-and-.NET-Core-3-Projects-Using-Azure-Second-Edition/Chapter01/eBookManager.Helper/ExtensionMethods.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
-C-8-and-.NET-Core-3-Projects-Using-Azure-Second-Edition/Chapter01/eBookManager/eBookManager.cs.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
+C-8-and-.NET-Core-3-Projects-Using-Azure-Second-Edition/Chapter01/eBookManager/eBookManager.cs.cs: (# of file-dependencies: 14, # of module-dependencies: 0)
 ---
 C-8-and-.NET-Core-3-Projects-Using-Azure-Second-Edition/Chapter01/eBookManager/ImportBooks.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
@@ -4121,11 +4166,88 @@
     <t>xiconify</t>
   </si>
   <si>
-    <t xml:space="preserve">xiconify/converted/iconify-ionicons/fonts/IoniconsModule.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+    <t xml:space="preserve">xiconify/JoanZapata-android-iconify-95083c5/android-iconify-typicons/src/main/java/com/joanzapata/iconify/fonts/TypiconsModule.java: (# of file-dependencies: 4, # of module-dependencies: 0)
+---
+xiconify/JoanZapata-android-iconify-95083c5/android-iconify-typicons/src/main/java/com/joanzapata/iconify/fonts/TypiconsIcons.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+xiconify/JoanZapata-android-iconify-95083c5/android-iconify-weathericons/src/main/java/com/joanzapata/iconify/fonts/WeathericonsModule.java: (# of file-dependencies: 4, # of module-dependencies: 0)
+---
+xiconify/JoanZapata-android-iconify-95083c5/android-iconify-weathericons/src/main/java/com/joanzapata/iconify/fonts/WeathericonsIcons.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+xiconify/JoanZapata-android-iconify-95083c5/android-iconify-meteocons/src/main/java/com/joanzapata/iconify/fonts/MeteoconsIcons.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+xiconify/JoanZapata-android-iconify-95083c5/android-iconify-meteocons/src/main/java/com/joanzapata/iconify/fonts/MeteoconsModule.java: (# of file-dependencies: 4, # of module-dependencies: 0)
+---
+xiconify/JoanZapata-android-iconify-95083c5/android-iconify-ionicons/src/main/java/com/joanzapata/iconify/fonts/IoniconsIcons.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+xiconify/JoanZapata-android-iconify-95083c5/android-iconify-ionicons/src/main/java/com/joanzapata/iconify/fonts/IoniconsModule.java: (# of file-dependencies: 4, # of module-dependencies: 0)
+---
+xiconify/JoanZapata-android-iconify-95083c5/android-iconify-entypo/src/main/java/com/joanzapata/iconify/fonts/EntypoIcons.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+xiconify/JoanZapata-android-iconify-95083c5/android-iconify-entypo/src/main/java/com/joanzapata/iconify/fonts/EntypoModule.java: (# of file-dependencies: 4, # of module-dependencies: 0)
+---
+xiconify/JoanZapata-android-iconify-95083c5/android-iconify-sample/src/main/java/com/joanzapata/iconify/sample/Font.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+xiconify/JoanZapata-android-iconify-95083c5/android-iconify-sample/src/main/java/com/joanzapata/iconify/sample/MainActivity.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+xiconify/JoanZapata-android-iconify-95083c5/android-iconify-sample/src/main/java/com/joanzapata/iconify/sample/IconAdapter.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+xiconify/JoanZapata-android-iconify-95083c5/android-iconify-sample/src/main/java/com/joanzapata/iconify/sample/SampleApplication.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+xiconify/JoanZapata-android-iconify-95083c5/android-iconify-sample/src/main/java/com/joanzapata/iconify/sample/FontIconsViewPagerAdapter.java: (# of file-dependencies: 2, # of module-dependencies: 0)
+---
+xiconify/JoanZapata-android-iconify-95083c5/android-iconify-sample/src/main/java/com/joanzapata/iconify/sample/utils/AndroidUtils.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+xiconify/JoanZapata-android-iconify-95083c5/android-iconify-material-community/src/main/java/com/joanzapata/iconify/fonts/MaterialCommunityModule.java: (# of file-dependencies: 4, # of module-dependencies: 0)
+---
+xiconify/JoanZapata-android-iconify-95083c5/android-iconify-material-community/src/main/java/com/joanzapata/iconify/fonts/MaterialCommunityIcons.java: (       # of file-dependencies: 1, # of module-dependencies: 0)
+---
+xiconify/JoanZapata-android-iconify-95083c5/android-iconify-simplelineicons/src/main/java/com/joanzapata/iconify/fonts/SimpleLineIconsIcons.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+xiconify/JoanZapata-android-iconify-95083c5/android-iconify-simplelineicons/src/main/java/com/joanzapata/iconify/fonts/SimpleLineIconsModule.java: (# of file-dependencies: 5, # of module-dependencies: 0)
+---
+xiconify/JoanZapata-android-iconify-95083c5/android-iconify-material/src/main/java/com/joanzapata/iconify/fonts/MaterialIcons.java: ( # of file-dependencies: 1, # of module-dependencies: 0)
+---
+xiconify/JoanZapata-android-iconify-95083c5/android-iconify-material/src/main/java/com/joanzapata/iconify/fonts/MaterialModule.java: (# of file-dependencies: 4, # of module-dependencies: 0)
+---
+xiconify/JoanZapata-android-iconify-95083c5/android-iconify/src/main/java/com/joanzapata/iconify/Iconify.java: (# of file-dependencies: 2, # of module-dependencies: 0)
+---
+xiconify/JoanZapata-android-iconify-95083c5/android-iconify/src/main/java/com/joanzapata/iconify/Icon.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+xiconify/JoanZapata-android-iconify-95083c5/android-iconify/src/main/java/com/joanzapata/iconify/IconFontDescriptor.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+xiconify/JoanZapata-android-iconify-95083c5/android-iconify/src/main/java/com/joanzapata/iconify/IconDrawable.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+xiconify/JoanZapata-android-iconify-95083c5/android-iconify/src/main/java/com/joanzapata/iconify/internal/CustomTypefaceSpan.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+xiconify/JoanZapata-android-iconify-95083c5/android-iconify/src/main/java/com/joanzapata/iconify/internal/HasOnViewAttachListener.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+xiconify/JoanZapata-android-iconify-95083c5/android-iconify/src/main/java/com/joanzapata/iconify/internal/ParsingUtil.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+xiconify/JoanZapata-android-iconify-95083c5/android-iconify/src/main/java/com/joanzapata/iconify/internal/IconFontDescriptorWrapper.java: (# of file-dependencies: 2, # of module-dependencies: 0)
+---
+xiconify/JoanZapata-android-iconify-95083c5/android-iconify/src/main/java/com/joanzapata/iconify/widget/IconButton.java: (# of file-dependencies: 2, # of module-dependencies: 0)
+---
+xiconify/JoanZapata-android-iconify-95083c5/android-iconify/src/main/java/com/joanzapata/iconify/widget/IconTextView.java: (# of file-dependencies: 2, # of module-dependencies: 0)
+---
+xiconify/JoanZapata-android-iconify-95083c5/android-iconify/src/main/java/com/joanzapata/iconify/widget/IconToggleButton.java: (# of file-dependencies: 2, # of module-dependencies: 0)
+---
+xiconify/JoanZapata-android-iconify-95083c5/android-iconify-fontawesome/src/main/java/com/joanzapata/iconify/fonts/FontAwesomeModule.java: (# of file-dependencies: 4, # of module-dependencies: 0)
+---
+xiconify/JoanZapata-android-iconify-95083c5/android-iconify-fontawesome/src/main/java/com/joanzapata/iconify/fonts/FontAwesomeIcons.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+xiconify/converted/iconify-simplelineicons/src/main/java/com/joanzapata/iconify/fonts/SimpleLineIconsIcons.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+xiconify/converted/iconify-simplelineicons/src/main/java/com/joanzapata/iconify/fonts/SimpleLineIconsModule.java: (# of file-dependencies: 5, # of module-dependencies: 0)
+---
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiconify/converted/iconify-ionicons/fonts/IoniconsModule.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 xiconify/converted/iconify-ionicons/fonts/IoniconsIcons.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-xiconify/converted/iconify-weathericons/src/main/java/com/joanzapata/iconify/fonts/WeathericonsModule.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+xiconify/converted/iconify-weathericons/src/main/java/com/joanzapata/iconify/fonts/WeathericonsModule.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 xiconify/converted/iconify-weathericons/src/main/java/com/joanzapata/iconify/fonts/WeathericonsIcons.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -4141,23 +4263,23 @@
 ---
 xiconify/converted/iconify-sample/utils/AndroidUtils.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-xiconify/converted/iconify-fontawesome/fonts/FontAwesomeModule.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+xiconify/converted/iconify-fontawesome/fonts/FontAwesomeModule.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 xiconify/converted/iconify-fontawesome/fonts/FontAwesomeIcons.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
 xiconify/converted/iconify-meteocons/src/main/java/com/joanzapata/iconify/fonts/MeteoconsIcons.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-xiconify/converted/iconify-meteocons/src/main/java/com/joanzapata/iconify/fonts/MeteoconsModule.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-xiconify/converted/iconify-typicons/src/main/java/com/joanzapata/iconify/fonts/TypiconsModule.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+xiconify/converted/iconify-meteocons/src/main/java/com/joanzapata/iconify/fonts/MeteoconsModule.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
+---
+xiconify/converted/iconify-typicons/src/main/java/com/joanzapata/iconify/fonts/TypiconsModule.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 xiconify/converted/iconify-typicons/src/main/java/com/joanzapata/iconify/fonts/TypiconsIcons.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-xiconify/converted/iconify-simplelineicons/src/main/java/com/joanzapata/iconify/fonts/SimpleLineIconsModule.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+xiconify/converted/iconify-simplelineicons/src/main/java/com/joanzapata/iconify/fonts/SimpleLineIconsModule.cs: (# of file-dependencies: 3, # of module-dependencies: 0)
 ---
 xiconify/converted/iconify-simplelineicons/src/main/java/com/joanzapata/iconify/fonts/SimpleLineIconsIcons.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-xiconify/converted/iconify-material/fonts/MaterialModule.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+xiconify/converted/iconify-material/fonts/MaterialModule.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 xiconify/converted/iconify-material/fonts/MaterialIcons.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -4189,9 +4311,9 @@
 ---
 xiconify/converted/iconify-entypo/fonts/EntypoIcons.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-xiconify/converted/iconify-entypo/fonts/EntypoModule.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-xiconify/xamarin-iconify/xamarin-iconify-simplelineicons/SimpleLineIconsModule.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+xiconify/converted/iconify-entypo/fonts/EntypoModule.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
+---
+xiconify/xamarin-iconify/xamarin-iconify-simplelineicons/SimpleLineIconsModule.cs: (# of file-dependencies: 3, # of module-dependencies: 0)
 ---
 xiconify/xamarin-iconify/xamarin-iconify-simplelineicons/SimpleLineIcons.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -4199,17 +4321,17 @@
 ---
 xiconify/xamarin-iconify/xamarin-iconify-meteocons/MeteoconsIcons.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-xiconify/xamarin-iconify/xamarin-iconify-meteocons/MeteoconsModule.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+xiconify/xamarin-iconify/xamarin-iconify-meteocons/MeteoconsModule.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 xiconify/xamarin-iconify/xamarin-iconify-meteocons/Properties/AssemblyInfo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
 xiconify/xamarin-iconify/xamarin-iconify-material-community/MaterialCommunityIcons.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-xiconify/xamarin-iconify/xamarin-iconify-material-community/MaterialCommunityModule.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+xiconify/xamarin-iconify/xamarin-iconify-material-community/MaterialCommunityModule.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 xiconify/xamarin-iconify/xamarin-iconify-material-community/Properties/AssemblyInfo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-xiconify/xamarin-iconify/xamarin-iconify-ionicons/IonIconsModule.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+xiconify/xamarin-iconify/xamarin-iconify-ionicons/IonIconsModule.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 xiconify/xamarin-iconify/xamarin-iconify-ionicons/IonIcons.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -4219,7 +4341,7 @@
 ---
 xiconify/xamarin-iconify/xamarin-iconify-sample-with-nugets/Properties/AssemblyInfo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-xiconify/xamarin-iconify/xamarin-iconify-fontawesome/FontAwesomeModule.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+xiconify/xamarin-iconify/xamarin-iconify-fontawesome/FontAwesomeModule.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 xiconify/xamarin-iconify/xamarin-iconify-fontawesome/FontAwesomeIcons.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -4257,13 +4379,13 @@
 ---
 xiconify/xamarin-iconify/xamarin-iconify-common/Properties/AssemblyInfo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-xiconify/xamarin-iconify/xamarin-iconify-weathericons/WeathericonsModule.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+xiconify/xamarin-iconify/xamarin-iconify-weathericons/WeathericonsModule.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 xiconify/xamarin-iconify/xamarin-iconify-weathericons/WeathericonsIcons.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
 xiconify/xamarin-iconify/xamarin-iconify-weathericons/Properties/AssemblyInfo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-xiconify/xamarin-iconify/xamarin-iconify-typicons/TypiconsModule.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+xiconify/xamarin-iconify/xamarin-iconify-typicons/TypiconsModule.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 xiconify/xamarin-iconify/xamarin-iconify-typicons/TypiconsIcons.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -4293,7 +4415,7 @@
 ---
 xiconify/xamarin-iconify/xamarin-iconify/com.joanzapata.iconify/Internal/ParsingUtil.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-xiconify/xamarin-iconify/xamarin-iconify-material/MaterialModule.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+xiconify/xamarin-iconify/xamarin-iconify-material/MaterialModule.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 xiconify/xamarin-iconify/xamarin-iconify-material/MaterialIcons.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -4301,7 +4423,7 @@
 ---
 xiconify/xamarin-iconify/xamarin-iconify-entypo/EntypoIcons.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-xiconify/xamarin-iconify/xamarin-iconify-entypo/EntypoModule.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+xiconify/xamarin-iconify/xamarin-iconify-entypo/EntypoModule.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 xiconify/xamarin-iconify/xamarin-iconify-entypo/Properties/AssemblyInfo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -4483,7 +4605,7 @@
 ---
 cscore/CsCore/UnityTests/Assets/Plugins/CsCoreUnityTests/ui/ViewStackTests.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-cscore/CsCore/UnityTests/Assets/Plugins/CsCoreUnityTests/ui/LinkingTests/LinkingTests.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+cscore/CsCore/UnityTests/Assets/Plugins/CsCoreUnityTests/ui/LinkingTests/LinkingTests.cs: (# of file-dependencies: 3, # of module-dependencies: 0)
 ---
 cscore/CsCore/UnityTests/Assets/Plugins/CsCoreUnityTests/io/FileTests.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -4501,7 +4623,7 @@
 ---
 cscore/CsCore/UnityTests/Assets/Plugins/CsCoreUnityTests/logging/LoggingTests.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-cscore/CsCore/UnityTests/Assets/Plugins/CsCoreUnityTests/injection/ComponentInjectionTests.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+cscore/CsCore/UnityTests/Assets/Plugins/CsCoreUnityTests/injection/ComponentInjectionTests.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 cscore/CsCore/UnityTests/Assets/Plugins/CsCoreUnityTests/injection/InjectionSetupTests.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -4789,7 +4911,7 @@
 ---
 cscore/CsCore/CsCoreUnity/Plugins/CsCoreUnity/com/csutil/editor/ShowPropertiesInInspector.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-cscore/CsCore/CsCoreUnity/Plugins/CsCoreUnity/com/csutil/editor/UnityPackageInstaller.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+cscore/CsCore/CsCoreUnity/Plugins/CsCoreUnity/com/csutil/editor/UnityPackageInstaller.cs: (# of file-dependencies: 6, # of module-dependencies: 0)
 ---
 cscore/CsCore/CsCoreUnity/Plugins/CsCoreUnity/com/csutil/editor/EditorWindowV2.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -4925,7 +5047,7 @@
 ---
 Simple-.NET-MVC-5-Shopping-Cart/ElectricsOnlineWebApp/App_Start/Startup.Auth.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-Simple-.NET-MVC-5-Shopping-Cart/ElectricsOnlineWebApp/App_Start/BundleConfig.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+Simple-.NET-MVC-5-Shopping-Cart/ElectricsOnlineWebApp/App_Start/BundleConfig.cs: (# of file-dependencies: 3, # of module-dependencies: 0)
 ---
 Simple-.NET-MVC-5-Shopping-Cart/ElectricsOnlineWebApp/App_Start/IdentityConfig.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -5339,7 +5461,7 @@
 ---
 SharpBrowser/src/MainForm.Designer.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-SharpBrowser/src/MainForm.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+SharpBrowser/src/MainForm.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 SharpBrowser/src/Handlers/LifeSpanHandler.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -5413,7 +5535,7 @@
 ---
 Q42.WinRT/Q42.WinRT.SampleApp/UserControls/FlyoutContentUserControl.xaml.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-Q42.WinRT/Q42.WinRT.SampleApp/ViewModel/ViewModelLocator.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+Q42.WinRT/Q42.WinRT.SampleApp/ViewModel/ViewModelLocator.cs: (# of file-dependencies: 5, # of module-dependencies: 0)
 ---
 Q42.WinRT/Q42.WinRT.SampleApp/ViewModel/DataExampleViewModel.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -5505,7 +5627,7 @@
 ---
 Q42.WinRT/Q42.WinRT.UniversalSampleApp/Q42.WinRT.UniversalSampleApp.Shared/UserControls/FlyoutContentUserControl.xaml.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-Q42.WinRT/Q42.WinRT.UniversalSampleApp/Q42.WinRT.UniversalSampleApp.Shared/ViewModel/ViewModelLocator.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+Q42.WinRT/Q42.WinRT.UniversalSampleApp/Q42.WinRT.UniversalSampleApp.Shared/ViewModel/ViewModelLocator.cs: (# of file-dependencies: 5, # of module-dependencies: 0)
 ---
 Q42.WinRT/Q42.WinRT.UniversalSampleApp/Q42.WinRT.UniversalSampleApp.Shared/ViewModel/DataExampleViewModel.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -5581,7 +5703,7 @@
 ---
 Q42.WinRT/Q42.WinRT.Phone.Sample/App.xaml.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-Q42.WinRT/Q42.WinRT.Phone.Sample/MainPage.xaml.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+Q42.WinRT/Q42.WinRT.Phone.Sample/MainPage.xaml.cs: (# of file-dependencies: 10, # of module-dependencies: 0)
 ---
 Q42.WinRT/Q42.WinRT.Phone.Sample/Resources/AppResources.Designer.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -5921,6 +6043,41 @@
     <t>GameProject</t>
   </si>
   <si>
+    <t xml:space="preserve">GameProject/repository/GameServer/src/com/server/ServerHandler.java: (# of file-dependencies: 2, # of module-dependencies: 0)
+---
+GameProject/repository/GameServer/src/com/server/ServerStarter.java: (# of file-dependencies: 2, # of module-dependencies: 0)
+---
+GameProject/repository/GameServer/src/com/server/ServerInitializer.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+GameProject/repository/GameServer/src/com/server/classload/PacketFactory.java: (# of file-dependencies: 2, # of module-dependencies: 0)
+---
+GameProject/repository/GameServer/src/com/server/classload/ClassLoadManager.java: (# of file-dependencies: 4, # of module-dependencies: 0)
+---
+GameProject/repository/GameServer/src/com/server/classload/packetloader/PacketLoader.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+GameProject/repository/GameServer/src/com/server/classload/packetloader/impl/AgePacketLoader.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+GameProject/repository/GameServer/src/com/server/classload/packetloader/impl/NamePacketLoader.java: (# of file-dependencies: 2, # of module-dependencies: 0)
+---
+GameProject/repository/GameServer/src/com/server/classload/packetproto/PacketSet.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+GameProject/repository/GameServer/src/com/conf/ClassLoadConfig.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+GameProject/repository/GameServer/src/com/conf/NetworkConfig.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+GameProject/repository/GameServer/src/com/examle/IOServer.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+GameProject/repository/GameServer/src/com/examle/IOSample.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+GameProject/repository/GameServer/src/com/examle/IOClient.java: (# of file-dependencies: 3, # of module-dependencies: 0)
+---
+GameProject/repository/GameServer/src/com/util/BaseUtil.java: (# of file-dependencies: 2, # of module-dependencies: 0)
+---
+GameProject/repository/GameServer/src/com/startpoint/Main.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">GameProject/repository/GameClient/Assets/Scripts/BasePacketsProto.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
 GameProject/repository/GameClient/Assets/Scripts/ProtoBufTest.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
@@ -6090,6 +6247,13 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">EProjectFile/LibNameInfoToJson/LibNameInfoToJson.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+EProjectFile/LibNameInfoToJson/stdafx.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+</t>
+  </si>
+  <si>
     <t>HiSocket</t>
   </si>
   <si>
@@ -6367,7 +6531,7 @@
 ---
 C-Sharp-Algorithms/DataStructures/Common/Comparers.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-C-Sharp-Algorithms/DataStructures/Common/PrimesList.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+C-Sharp-Algorithms/DataStructures/Common/PrimesList.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 C-Sharp-Algorithms/DataStructures/Common/Helpers.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -7057,7 +7221,7 @@
 ---
 EssentialCSharp/src/Chapter04/Listing04.06.CharDifferences.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-EssentialCSharp/src/Chapter04/Listing04.61.LineWarning.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+EssentialCSharp/src/Chapter04/Listing04.61.LineWarning.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 EssentialCSharp/src/Chapter04/Listing04.58.WarningDirective.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -7085,7 +7249,7 @@
 ---
 EssentialCSharp/src/Chapter04/Listing04.34.LogicalNegationOperator.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-EssentialCSharp/src/Chapter04/TicTacToe.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+EssentialCSharp/src/Chapter04/TicTacToe.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 EssentialCSharp/src/Chapter04/Listing04.52.DeterminingEmailDomain.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -7939,7 +8103,7 @@
 ---
 ChatBotProject/ChatBotProject/ChatBotProject/bubble.Designer.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-ChatBotProject/ChatBotProject/ChatBotProject/ChatBot.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+ChatBotProject/ChatBotProject/ChatBotProject/ChatBot.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 ChatBotProject/ChatBotProject/ChatBotProject/Program.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -7961,6 +8125,354 @@
   </si>
   <si>
     <t>sonar-dotnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sonar-dotnet/sonar-csharp-plugin/src/test/java/com/sonar/plugins/security/api/CsRules.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-csharp-plugin/src/test/java/org/sonar/plugins/csharp/CSharpSonarRulesDefinitionTest.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-csharp-plugin/src/test/java/org/sonar/plugins/csharp/CSharpSonarWayProfileTest.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-csharp-plugin/src/test/java/org/sonar/plugins/csharp/CSharpPluginTest.java: (# of file-dependencies: 12, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-csharp-plugin/src/test/java/org/sonar/plugins/csharp/CSharpTest.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-csharp-plugin/src/test/java/org/sonar/plugins/csharp/SonarLintFakeProfileImporterTest.java: ( # of file-dependencies: 0, # of module-dependencies: 1)
+---
+sonar-dotnet/sonar-csharp-plugin/src/test/java/org/sonar/plugins/csharp/SonarVersion.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-csharp-plugin/src/main/java/org/sonar/plugins/csharp/CSharpGlobalProtobufFileProcessor.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-csharp-plugin/src/main/java/org/sonar/plugins/csharp/CSharp.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-csharp-plugin/src/main/java/org/sonar/plugins/csharp/CSharpSonarWayProfile.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-csharp-plugin/src/main/java/org/sonar/plugins/csharp/CSharpSolutionConfiguration.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-csharp-plugin/src/main/java/org/sonar/plugins/csharp/CSharpProjectConfiguration.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-csharp-plugin/src/main/java/org/sonar/plugins/csharp/CSharpPlugin.java: (# of file-dependencies: 14, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-csharp-plugin/src/main/java/org/sonar/plugins/csharp/SonarLintFakeProfileImporter.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-csharp-plugin/src/main/java/org/sonar/plugins/csharp/CSharpPropertyDefinitions.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-csharp-plugin/src/main/java/org/sonar/plugins/csharp/CSharpSonarRulesDefinition.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-csharp-plugin/src/main/java/org/sonar/plugins/csharp/package-info.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-vbnet-plugin/src/test/java/org/sonar/plugins/vbnet/VbNetPluginTest.java: (# of file-dependencies: 12, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-vbnet-plugin/src/test/java/org/sonar/plugins/vbnet/VbNetSonarWayProfileTest.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-vbnet-plugin/src/test/java/org/sonar/plugins/vbnet/VbNetTest.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-vbnet-plugin/src/test/java/org/sonar/plugins/vbnet/SonarLintFakeProfileImporterTest.java: ( # of file-dependencies: 0, # of module-dependencies: 1)
+---
+sonar-dotnet/sonar-vbnet-plugin/src/test/java/org/sonar/plugins/vbnet/VbNetSonarRulesDefinitionTest.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-vbnet-plugin/src/test/java/org/sonar/plugins/vbnet/SonarVersion.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-vbnet-plugin/src/main/java/org/sonar/plugins/vbnet/VbNetPlugin.java: (# of file-dependencies: 14, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-vbnet-plugin/src/main/java/org/sonar/plugins/vbnet/VbNetSonarRulesDefinition.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-vbnet-plugin/src/main/java/org/sonar/plugins/vbnet/VbNetSolutionConfiguration.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-vbnet-plugin/src/main/java/org/sonar/plugins/vbnet/VbNetGlobalProtobufFileProcessor.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-vbnet-plugin/src/main/java/org/sonar/plugins/vbnet/SonarLintFakeProfileImporter.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-vbnet-plugin/src/main/java/org/sonar/plugins/vbnet/VbNetSonarWayProfile.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-vbnet-plugin/src/main/java/org/sonar/plugins/vbnet/VbNetPropertyDefinitions.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-vbnet-plugin/src/main/java/org/sonar/plugins/vbnet/VbNet.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-vbnet-plugin/src/main/java/org/sonar/plugins/vbnet/package-info.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-vbnet-plugin/src/main/java/org/sonar/plugins/vbnet/VbNetProjectConfiguration.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonar/plugins/dotnet/tests/BranchPointTest.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonar/plugins/dotnet/tests/DotCoverReportParserTest.java: (# of file-dependencies: 6, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonar/plugins/dotnet/tests/VstsUtils.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonar/plugins/dotnet/tests/OpenCoverReportParserTest.java: (# of file-dependencies: 19, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonar/plugins/dotnet/tests/CoverageTest.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonar/plugins/dotnet/tests/NUnitTestResultsFileParserTest.java: (# of file-dependencies: 16, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonar/plugins/dotnet/tests/CoverageAggregatorTest.java: (# of file-dependencies: 2, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonar/plugins/dotnet/tests/DotCoverReportsAggregatorTest.java: (# of file-dependencies: 9, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonar/plugins/dotnet/tests/XmlParserHelperTest.java: (# of file-dependencies: 19, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonar/plugins/dotnet/tests/CoverageCacheTest.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonar/plugins/dotnet/tests/UnitTestResultsImportSensorTest.java: ( # of file-dependencies: 0, # of module-dependencies: 1)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonar/plugins/dotnet/tests/UnitTestResultsAggregatorTest.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonar/plugins/dotnet/tests/VisualStudioCoverageXmlReportParserTest.java: (# of file-dependencies: 10, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonar/plugins/dotnet/tests/NCover3ReportParserTest.java: (# of file-dependencies: 6, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonar/plugins/dotnet/tests/BranchCoverageTest.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonar/plugins/dotnet/tests/CoverageReportImportSensorTest.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonar/plugins/dotnet/tests/WildcardPatternFileProviderTest.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonar/plugins/dotnet/tests/XUnitTestResultsFileParserTest.java: (# of file-dependencies: 18, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonar/plugins/dotnet/tests/VisualStudioTestResultsFileParserTest.java: (# of file-dependencies: 7, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonarsource/dotnet/shared/plugins/PropertiesSensorTest.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonarsource/dotnet/shared/plugins/RoslynDataImporterTest.java: ( # of file-dependencies: 7, # of module-dependencies: 1)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonarsource/dotnet/shared/plugins/WrongEncodingFileFilterTest.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonarsource/dotnet/shared/plugins/UnitTestResultsProviderTest.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonarsource/dotnet/shared/plugins/AbstractSolutionConfigurationTest.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonarsource/dotnet/shared/plugins/AbstractRulesDefinitionTest.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonarsource/dotnet/shared/plugins/AbstractProjectConfigurationTest.java: (# of file-dependencies: 4, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonarsource/dotnet/shared/plugins/ProtobufDataImporterTest.java: ( # of file-dependencies: 4, # of module-dependencies: 1)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonarsource/dotnet/shared/plugins/EncodingPerFileTest.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonarsource/dotnet/shared/plugins/RealPathProviderTest.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonarsource/dotnet/shared/plugins/AbstractGlobalProtobufFileProcessorTest.java: (# of file-dependencies: 2, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonarsource/dotnet/shared/plugins/GeneratedFileFilterTest.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonarsource/dotnet/shared/plugins/CodeCoverageProviderTest.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonarsource/dotnet/shared/plugins/DotNetSensorTest.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonarsource/dotnet/shared/plugins/AbstractSonarLintProfileExporterTest.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonarsource/dotnet/shared/plugins/ReportPathCollectorTest.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonarsource/dotnet/shared/plugins/SensorContextUtilsTest.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonarsource/dotnet/shared/plugins/RoslynProfileExporterTest.java: (# of file-dependencies: 4, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonarsource/dotnet/shared/plugins/testutils/ProtobufFilterTool.java: (# of file-dependencies: 21, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonarsource/dotnet/shared/plugins/protobuf/SymbolRefsImporterTest.java: ( # of file-dependencies: 0, # of module-dependencies: 1)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonarsource/dotnet/shared/plugins/protobuf/MetricsImporterTest.java: ( # of file-dependencies: 0, # of module-dependencies: 1)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonarsource/dotnet/shared/plugins/protobuf/FileMetadataImporterTest.java: ( # of file-dependencies: 1, # of module-dependencies: 1)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonarsource/dotnet/shared/plugins/protobuf/CPDTokensImporterTest.java: ( # of file-dependencies: 0, # of module-dependencies: 1)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonarsource/dotnet/shared/plugins/protobuf/HighlightImporterTest.java: (  # of file-dependencies: 0, # of module-dependencies: 1)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonarsource/dotnet/shared/sarif/SarifParser10Test.java: (# of file-dependencies: 11, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonarsource/dotnet/shared/sarif/SarifParser01And04Test.java: (# of file-dependencies: 13, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonarsource/dotnet/shared/sarif/SarifParserFactoryTest.java: (# of file-dependencies: 4, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/test/java/org/sonarsource/dotnet/shared/sarif/SarifParserCallbackImplTest.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonar/plugins/dotnet/tests/NUnitTestResultsFileParser.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonar/plugins/dotnet/tests/SequencePoint.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonar/plugins/dotnet/tests/UnitTestResultsParser.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonar/plugins/dotnet/tests/VisualStudioCoverageXmlReportParser.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonar/plugins/dotnet/tests/NCover3ReportParser.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonar/plugins/dotnet/tests/UnitTestResultsAggregator.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonar/plugins/dotnet/tests/CoverageParser.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonar/plugins/dotnet/tests/UnitTestResultsImportSensor.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonar/plugins/dotnet/tests/DotCoverReportsAggregator.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonar/plugins/dotnet/tests/DotCoverReportParser.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonar/plugins/dotnet/tests/UnitTestConfiguration.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonar/plugins/dotnet/tests/BranchPoint.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonar/plugins/dotnet/tests/ParseErrorException.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonar/plugins/dotnet/tests/XUnitTestResultsFileParser.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonar/plugins/dotnet/tests/OpenCoverReportParser.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonar/plugins/dotnet/tests/CoverageAggregator.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonar/plugins/dotnet/tests/XmlParserHelper.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonar/plugins/dotnet/tests/CoverageConfiguration.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonar/plugins/dotnet/tests/CoverageReportImportSensor.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonar/plugins/dotnet/tests/CoverageCache.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonar/plugins/dotnet/tests/BranchCoverage.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonar/plugins/dotnet/tests/UnitTestResults.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonar/plugins/dotnet/tests/package-info.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonar/plugins/dotnet/tests/VisualStudioTestResultsFileParser.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonar/plugins/dotnet/tests/Coverage.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonar/plugins/dotnet/tests/WildcardPatternFileProvider.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/plugins/AbstractRulesDefinition.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/plugins/EncodingPerFile.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/plugins/RoslynProfileExporter.java: (   # of file-dependencies: 47, # of module-dependencies: 1)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/plugins/AbstractFakeProfileImporter.java: (  # of file-dependencies: 0, # of module-dependencies: 1)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/plugins/AbstractProjectConfiguration.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/plugins/RoslynReport.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/plugins/AbstractGlobalProtobufFileProcessor.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/plugins/AbstractSolutionConfiguration.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/plugins/AbstractPropertyDefinitions.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/plugins/GeneratedFileFilter.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/plugins/AbstractSonarLintProfileExporter.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/plugins/PropertiesSensor.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/plugins/CodeCoverageProvider.java: (# of file-dependencies: 11, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/plugins/RealPathProvider.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/plugins/SarifParserCallbackImpl.java: (# of file-dependencies: 2, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/plugins/SonarLintProfileExporter.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/plugins/RoslynDataImporter.java: ( # of file-dependencies: 2, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/plugins/AbstractSonarWayProfile.java: (# of file-dependencies: 2, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/plugins/UnitTestResultsProvider.java: (# of file-dependencies: 3, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/plugins/SensorContextUtils.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/plugins/DotNetPluginMetadata.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/plugins/ProtobufDataImporter.java: (  # of file-dependencies: 2, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/plugins/package-info.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/plugins/ReportPathCollector.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/plugins/DotNetSensor.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/plugins/WrongEncodingFileFilter.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/plugins/protobuf/CPDTokensImporter.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/plugins/protobuf/FileMetadataImporter.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/plugins/protobuf/RawProtobufImporter.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/plugins/protobuf/EncodingImporter.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/plugins/protobuf/ProtobufImporters.java: (# of file-dependencies: 5, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/plugins/protobuf/MetricsImporter.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/plugins/protobuf/HighlightImporter.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/plugins/protobuf/ProtobufImporter.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/plugins/protobuf/package-info.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/plugins/protobuf/SymbolRefsImporter.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/sarif/SarifParser.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/sarif/SarifParserCallback.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/sarif/SarifParser10.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/sarif/SarifParserFactory.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/sarif/Location.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/sarif/SarifParser01And04.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/sonar-dotnet-shared-library/src/main/java/org/sonarsource/dotnet/shared/sarif/package-info.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/its/src/test/java/com/sonar/it/shared/VstsUtils.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+sonar-dotnet/its/src/test/java/com/sonar/it/shared/TestUtils.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+sonar-dotnet/its/src/test/java/com/sonar/it/vbnet/DoNotAnalyzeTestFilesTest.java: (# of file-dependencies: 9, # of module-dependencies: 0)
+---
+sonar-dotnet/its/src/test/java/com/sonar/it/vbnet/CoverageTest.java: (# of file-dependencies: 46, # of module-dependencies: 0)
+---
+sonar-dotnet/its/src/test/java/com/sonar/it/vbnet/UnitTestResultsTest.java: ( # of file-dependencies: 5, # of module-dependencies: 0)
+---
+sonar-dotnet/its/src/test/java/com/sonar/it/vbnet/AutoGeneratedTest.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+sonar-dotnet/its/src/test/java/com/sonar/it/vbnet/Tests.java: (# of file-dependencies: 5, # of module-dependencies: 0)
+---
+sonar-dotnet/its/src/test/java/com/sonar/it/vbnet/MetricsTest.java: (# of file-dependencies: 11, # of module-dependencies: 0)
+---
+sonar-dotnet/its/src/test/java/com/sonar/it/vbnet/NoSonarTest.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+sonar-dotnet/its/src/test/java/com/sonar/it/csharp/DoNotAnalyzeTestFilesTest.java: (# of file-dependencies: 6, # of module-dependencies: 0)
+---
+sonar-dotnet/its/src/test/java/com/sonar/it/csharp/RuleParameterCustomizationTest.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+sonar-dotnet/its/src/test/java/com/sonar/it/csharp/SharedFilesTest.java: (# of file-dependencies: 6, # of module-dependencies: 0)
+---
+sonar-dotnet/its/src/test/java/com/sonar/it/csharp/CoverageTest.java: ( # of file-dependencies: 17, # of module-dependencies: 0)
+---
+sonar-dotnet/its/src/test/java/com/sonar/it/csharp/UnitTestResultsTest.java: ( # of file-dependencies: 5, # of module-dependencies: 0)
+---
+sonar-dotnet/its/src/test/java/com/sonar/it/csharp/AutoGeneratedTest.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+sonar-dotnet/its/src/test/java/com/sonar/it/csharp/MultiTargetAppTest.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+sonar-dotnet/its/src/test/java/com/sonar/it/csharp/CasingAppTest.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+sonar-dotnet/its/src/test/java/com/sonar/it/csharp/Tests.java: (# of file-dependencies: 5, # of module-dependencies: 0)
+---
+sonar-dotnet/its/src/test/java/com/sonar/it/csharp/MetricsTest.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+sonar-dotnet/its/src/test/java/com/sonar/it/csharp/MetricsIncludeHeaderCommentTest.java: (# of file-dependencies: 24, # of module-dependencies: 0)
+---
+sonar-dotnet/its/src/test/java/com/sonar/it/csharp/NoSonarTest.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sonar-dotnet/sonaranalyzer-dotnet/its/sources/AutoMapper/docs/conf.py: (# of file-dependencies: 5, # of module-dependencies: 0)
+---
+</t>
   </si>
   <si>
     <t>sonar-dotnet/sonar-csharp-plugin/src/test/resources/Program.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
@@ -8415,7 +8927,7 @@
 ---
 Csharp-Project/Game Logic Class/obj/Debug/TemporaryGeneratedFile_5937a670-0e60-4077-877b-f7221da3dda1.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-Csharp-Project/GUI Class/SquareControl.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+Csharp-Project/GUI Class/SquareControl.cs: (# of file-dependencies: 10, # of module-dependencies: 0)
 ---
 Csharp-Project/GUI Class/SpaceRaceForm.Designer.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -8443,7 +8955,7 @@
     <t>CSharp-Playground</t>
   </si>
   <si>
-    <t xml:space="preserve">CSharp-Playground/LzssAlgorithmImplementation/LzssAlgorithm/LzssDemo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+    <t xml:space="preserve">CSharp-Playground/LzssAlgorithmImplementation/LzssAlgorithm/LzssDemo.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 CSharp-Playground/LzssAlgorithmImplementation/LzssAlgorithm/EncodedString.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -8551,6 +9063,45 @@
     <t>BuildAMation</t>
   </si>
   <si>
+    <t xml:space="preserve">BuildAMation/codingtools/remove_byte_ordering_mark.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+BuildAMation/codingtools/strip_trailing_whitespace.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+BuildAMation/codingtools/add_new_dependent_to_tests.py: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+BuildAMation/codingtools/dotnetcore_make_release.py: (# of file-dependencies: 7, # of module-dependencies: 0)
+---
+BuildAMation/codingtools/generate_docs.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+BuildAMation/codingtools/dotnetcore_run_unittests.py: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+BuildAMation/codingtools/tabs_to_spaces.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+BuildAMation/codingtools/assign_license.py: (# of file-dependencies: 2, # of module-dependencies: 0)
+---
+BuildAMation/codingtools/convert_line_endings.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+BuildAMation/codingtools/upgrade_package_schemas.py: (  # of file-dependencies: 0, # of module-dependencies: 1)
+---
+BuildAMation/codingtools/choose_default_dependent_in_tests.py: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+BuildAMation/tests/builderactions.py: (      # of file-dependencies: 0, # of module-dependencies: 1)
+---
+BuildAMation/tests/testconfigurations.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+BuildAMation/tests/bamtests.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+BuildAMation/tests/runtests.py: (  # of file-dependencies: 6, # of module-dependencies: 1)
+---
+BuildAMation/tests/testinstance.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+BuildAMation/tests/ExternalSourceGeneratorTest2/generators/class.py: (  # of file-dependencies: 0, # of module-dependencies: 1)
+---
+BuildAMation/tests/ExternalSourceGeneratorTest1/generators/class.py: (  # of file-dependencies: 0, # of module-dependencies: 1)
+---
+</t>
+  </si>
+  <si>
     <t>BuildAMation/packages/VisualC-12.0/bam/Scripts/CompilerSettings.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
 BuildAMation/packages/VisualC-12.0/bam/Scripts/ArchiverSettings.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
@@ -8679,7 +9230,7 @@
 ---
 BuildAMation/packages/XcodeBuilder/bam/Scripts/Object.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-BuildAMation/packages/XcodeBuilder/bam/Scripts/FileReference.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+BuildAMation/packages/XcodeBuilder/bam/Scripts/FileReference.cs: (# of file-dependencies: 7, # of module-dependencies: 0)
 ---
 BuildAMation/packages/XcodeBuilder/bam/Scripts/Project.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -8721,7 +9272,7 @@
 ---
 BuildAMation/packages/ClangCommon/bam/Scripts/CommonLinkerSettings.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-BuildAMation/packages/ClangCommon/bam/Scripts/CommonCompilerSettings.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+BuildAMation/packages/ClangCommon/bam/Scripts/CommonCompilerSettings.cs: (# of file-dependencies: 6, # of module-dependencies: 0)
 ---
 BuildAMation/packages/ClangCommon/bam/Scripts/ToolchainVersion.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -9038,6 +9589,66 @@
 BuildAMation/packages/Publisher/bam/Scripts/StrippedBinaryCollation.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
 BuildAMation/packages/Publisher/bam/Scrip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BuildAMation/tests/Cxx17Test1/source/main.cpp: (&lt;string&gt;
+ &lt;iostream&gt;
+ # of file-dependencies: 0, # of module-dependencies: 0)
+---
+BuildAMation/tests/ExternalSourceGeneratorTest2/source/main.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+BuildAMation/tests/Cxx14Test1/source/main.cpp: (&lt;iostream&gt;
+ &lt;vector&gt;
+ &lt;initializer_list&gt;
+ &lt;memory&gt;
+ # of file-dependencies: 0, # of module-dependencies: 0)
+---
+BuildAMation/tests/PluginTest/source/plugin/pluginmain.cpp: (&lt;cstdio&gt;
+ # of file-dependencies: 0, # of module-dependencies: 0)
+---
+BuildAMation/tests/PluginTest/source/application/main.cpp: (&lt;string&gt;
+ &lt;stdexcept&gt;
+ &lt;iostream&gt;
+ &lt;sstream&gt;
+ &lt;Windows.h&gt;
+ &lt;libgen.h&gt; &lt;dlfcn.h&gt;
+ &lt;libgen.h&gt; # of file-dependencies: 0, # of module-dependencies: 2)
+---
+BuildAMation/tests/Test12/source/main.cpp: (&lt;Windows.h&gt;
+ # of file-dependencies: 0, # of module-dependencies: 2)
+---
+BuildAMation/tests/Test12/source/win/win.cpp: (&lt;Windows.h&gt;
+ &lt;stdio.h&gt;
+ # of file-dependencies: 0, # of module-dependencies: 2)
+---
+BuildAMation/tests/Test12/source/unix/unix.cpp: (&lt;X11/Xlib.h&gt;
+ &lt;stdio.h&gt;
+ &lt;unistd.h&gt; # of file-dependencies: 0, # of module-dependencies: 2)
+---
+BuildAMation/tests/Test12/source/osx/osx.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+BuildAMation/tests/Cxx11Test1/source/main.cpp: (&lt;iostream&gt;
+ &lt;vector&gt;
+ &lt;initializer_list&gt;
+ &lt;memory&gt;
+ # of file-dependencies: 0, # of module-dependencies: 0)
+---
+BuildAMation/tests/ExternalSourceGeneratorTest1/source/main.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+BuildAMation/tests/InstallerTest1/source/main.cpp: (&lt;iostream&gt;
+ &lt;stdio.h&gt;
+ &lt;Windows.h&gt;
+ # of file-dependencies: 5, # of module-dependencies: 1)
+---
+BuildAMation/tests/InstallerTest1/source/staticlib/staticlibrary.cpp: (# of file-dependencies: 2, # of module-dependencies: 0)
+---
+BuildAMation/tests/InstallerTest1/source/dynamiclib/dynamiclibrary.cpp: (# of file-dependencies: 3, # of module-dependencies: 0)
+---
+BuildAMation/tests/UnicodeTest1/source/main.cpp: (&lt;tchar.h&gt;
+ &lt;type_traits&gt;
+ # of file-dependencies: 0, # of module-dependencies: 2)
+---
+</t>
   </si>
   <si>
     <t>project-system-tools</t>
@@ -9251,7 +9862,16 @@
     <t>Sharpmake</t>
   </si>
   <si>
-    <t xml:space="preserve">Sharpmake/Sharpmake.Main.sharpmake.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+    <t xml:space="preserve">Sharpmake/functional_test.py: (  # of file-dependencies: 2, # of module-dependencies: 1)
+---
+Sharpmake/regression_test.py: (  # of file-dependencies: 0, # of module-dependencies: 1)
+---
+Sharpmake/deploy_binaries.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharpmake/Sharpmake.Main.sharpmake.cs: (# of file-dependencies: 8, # of module-dependencies: 0)
 ---
 Sharpmake/Sharpmake.Generators/CompilerSettings.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -9283,7 +9903,7 @@
 ---
 Sharpmake/Sharpmake.Generators/VisualStudio/ProjectOptionsGenerator.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-Sharpmake/Sharpmake.Generators/VisualStudio/PackagesConfig.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+Sharpmake/Sharpmake.Generators/VisualStudio/PackagesConfig.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 Sharpmake/Sharpmake.Generators/VisualStudio/Vcxproj.cs: (# of file-dependencies: 11, # of module-dependencies: 0)
 ---
@@ -9297,7 +9917,7 @@
 ---
 Sharpmake/Sharpmake.Generators/VisualStudio/IPlatformVcxproj.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-Sharpmake/Sharpmake.Generators/VisualStudio/ProjectJson.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+Sharpmake/Sharpmake.Generators/VisualStudio/ProjectJson.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 Sharpmake/Sharpmake.Generators/VisualStudio/VsProjCommon.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -9307,7 +9927,7 @@
 ---
 Sharpmake/Sharpmake.Generators/VisualStudio/IVcxprojGenerationContext.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-Sharpmake/Sharpmake.Generators/VisualStudio/Csproj.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
+Sharpmake/Sharpmake.Generators/VisualStudio/Csproj.cs: (# of file-dependencies: 4, # of module-dependencies: 0)
 ---
 Sharpmake/Sharpmake.Generators/VisualStudio/UserFile.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -9433,7 +10053,7 @@
 ---
 Sharpmake/Sharpmake/FileSystemStringComparer.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-Sharpmake/Sharpmake/Project.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+Sharpmake/Sharpmake/Project.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 Sharpmake/Sharpmake/Target.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -9499,7 +10119,7 @@
 ---
 Sharpmake/samples/Sharpmake.Samples.sharpmake.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-Sharpmake/samples/FastBuildSimpleExecutable/FastBuildSimpleExecutable.sharpmake.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+Sharpmake/samples/FastBuildSimpleExecutable/FastBuildSimpleExecutable.sharpmake.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 Sharpmake/samples/FastBuildSimpleExecutable/Properties/AssemblyInfo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -9511,7 +10131,7 @@
 ---
 Sharpmake/samples/CSharpHelloWorld/codebase/HelloWorld/Properties/AssemblyInfo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-Sharpmake/samples/CPPCLI/CLRTest.sharpmake.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+Sharpmake/samples/CPPCLI/CLRTest.sharpmake.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 Sharpmake/samples/CPPCLI/projects.sharpmake.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -9549,7 +10169,7 @@
 ---
 Sharpmake/samples/CSharpVsix/common.sharpmake.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-Sharpmake/samples/CSharpVsix/CSharpVsix.sharpmake.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+Sharpmake/samples/CSharpVsix/CSharpVsix.sharpmake.cs: (# of file-dependencies: 8, # of module-dependencies: 0)
 ---
 Sharpmake/samples/CSharpVsix/codebase/CSharpVsix/HelloWorldCommand.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -9559,7 +10179,7 @@
 ---
 Sharpmake/samples/SimpleExeLibDependency/LibStuff.sharpmake.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-Sharpmake/samples/SimpleExeLibDependency/SimpleExeLibDependency.sharpmake.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+Sharpmake/samples/SimpleExeLibDependency/SimpleExeLibDependency.sharpmake.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 Sharpmake/samples/CSharpWCF/CSharpWCF.sharpmake.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -9589,7 +10209,7 @@
 ---
 Sharpmake/samples/ConfigureOrder/ConfigureOrdering.sharpmake.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-Sharpmake/samples/ConfigureOrder/main.sharpmake.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+Sharpmake/samples/ConfigureOrder/main.sharpmake.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 Sharpmake/samples/ConfigureOrder/Properties/AssemblyInfo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -9599,7 +10219,7 @@
 ---
 Sharpmake/Sharpmake.UnitTests/Sharpmake.UnitTests.sharpmake.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-Sharpmake/Sharpmake.UnitTests/UtilTest.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+Sharpmake/Sharpmake.UnitTests/UtilTest.cs: (# of file-dependencies: 25, # of module-dependencies: 0)
 ---
 Sharpmake/Sharpmake.UnitTests/CommandLineTest.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -9629,7 +10249,7 @@
 ---
 Sharpmake/Sharpmake.FunctionalTests/Sharpmake.FunctionalTests.sharpmake.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-Sharpmake/Sharpmake.FunctionalTests/FastBuildFunctionalTest/FastBuildFunctionalTest.sharpmake.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+Sharpmake/Sharpmake.FunctionalTests/FastBuildFunctionalTest/FastBuildFunctionalTest.sharpmake.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 Sharpmake/Sharpmake.Platforms/Sharpmake.Platforms.sharpmake.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -9709,9 +10329,123 @@
 ---
 Sharpmake/Sharpmake.Application/CommandLineArguments.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-Sharpmake/Sharpmake.Application/Sharpmake.Application.sharpmake.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+Sharpmake/Sharpmake.Application/Sharpmake.Application.sharpmake.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 Sharpmake/Sharpmake.Application/Properties/AssemblyInfo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharpmake/samples/FastBuildSimpleExecutable/codebase/main.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+Sharpmake/samples/CPPCLI/codebase/theEmptyCPPProject/TestClass.cpp: ("TestClass.h"
+ &lt;iostream&gt;
+ # of file-dependencies: 1, # of module-dependencies: 0)
+---
+Sharpmake/samples/CPPCLI/codebase/CLRCPPProj/AssemblyInfo.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+Sharpmake/samples/CPPCLI/codebase/CLRCPPProj/CLRCPPProj.cpp: ("CLRCPPProj.h"
+ # of file-dependencies: 1, # of module-dependencies: 1)
+---
+Sharpmake/samples/QTFileCustomBuild/codebase/stdafx.cpp: (# of file-dependencies: 3, # of module-dependencies: 0)
+---
+Sharpmake/samples/QTFileCustomBuild/codebase/floatanglespinbox.cpp: ("floatanglespinbox.h"
+ # of file-dependencies: 4, # of module-dependencies: 1)
+---
+Sharpmake/samples/QTFileCustomBuild/codebase/floatcosanglespinbox.cpp: ("floatcosanglespinbox.h"
+ &lt;cmath&gt;
+ # of file-dependencies: 4, # of module-dependencies: 0)
+---
+Sharpmake/samples/QTFileCustomBuild/codebase/privatewidget.cpp: ("privatewidget.h"
+ &lt;cmath&gt;
+ # of file-dependencies: 4, # of module-dependencies: 0)
+---
+Sharpmake/samples/HelloWorld/codebase/main.cpp: (# of file-dependencies: 3, # of module-dependencies: 0)
+---
+Sharpmake/samples/HelloWorld/codebase/stdafx.cpp: (# of file-dependencies: 3, # of module-dependencies: 0)
+---
+Sharpmake/samples/SimpleExeLibDependency/libstuff/hello.cpp: (&lt;iostream&gt;
+ # of file-dependencies: 2, # of module-dependencies: 0)
+---
+Sharpmake/samples/SimpleExeLibDependency/src/main.cpp: (&lt;iostream&gt;
+ &lt;hello.h&gt;
+ # of file-dependencies: 0, # of module-dependencies: 2)
+---
+Sharpmake/samples/CompileCommandDatabase/libhello/hello.cpp: (&lt;iostream&gt;
+ # of file-dependencies: 2, # of module-dependencies: 0)
+---
+Sharpmake/samples/CompileCommandDatabase/libgoodbye/goodbye.cpp: ("goodbye.h"
+ &lt;iostream&gt;
+ # of file-dependencies: 1, # of module-dependencies: 0)
+---
+Sharpmake/samples/CompileCommandDatabase/src/main.cpp: (&lt;iostream&gt;
+ "goodbye.h"
+ # of file-dependencies: 3, # of module-dependencies: 1)
+---
+Sharpmake/samples/ConfigureOrder/codebase/main.cpp: (# of file-dependencies: 3, # of module-dependencies: 0)
+---
+Sharpmake/samples/ConfigureOrder/codebase/stdafx.cpp: (# of file-dependencies: 3, # of module-dependencies: 0)
+---
+Sharpmake/Sharpmake.FunctionalTests/FastBuildFunctionalTest/codebase/UsePrecompExe/util.cpp: ("precomp.h"
+ &lt;cstdio&gt;
+ # of file-dependencies: 3, # of module-dependencies: 0)
+---
+Sharpmake/Sharpmake.FunctionalTests/FastBuildFunctionalTest/codebase/UsePrecompExe/main.cpp: ("precomp.h"
+ "noprecomp_util.h"
+ "util_noprecomp_excludedbyextension.h"
+ "util_withprecomp_weirdextension.h"
+ # of file-dependencies: 6, # of module-dependencies: 1)
+---
+Sharpmake/Sharpmake.FunctionalTests/FastBuildFunctionalTest/codebase/UsePrecompExe/noprecomp_util.cpp: ("noprecomp_util.h"
+ &lt;cstdio&gt;
+ # of file-dependencies: 1, # of module-dependencies: 0)
+---
+Sharpmake/Sharpmake.FunctionalTests/FastBuildFunctionalTest/codebase/UsePrecompExe/precomp.cpp: ("precomp.h"
+ # of file-dependencies: 1, # of module-dependencies: 1)
+---
+Sharpmake/Sharpmake.FunctionalTests/FastBuildFunctionalTest/codebase/SpanMultipleSrcDirs/main_dir/util.cpp: (&lt;cstdio&gt;
+ # of file-dependencies: 2, # of module-dependencies: 0)
+---
+Sharpmake/Sharpmake.FunctionalTests/FastBuildFunctionalTest/codebase/SpanMultipleSrcDirs/main_dir/main.cpp: ("extra_class1.h"
+ "extra_class2.h"
+ "floating_class.h"
+ # of file-dependencies: 5, # of module-dependencies: 1)
+---
+Sharpmake/Sharpmake.FunctionalTests/FastBuildFunctionalTest/codebase/SpanMultipleSrcDirs/additional_dir/extra_class1.cpp: ("extra_class1.h"
+ &lt;cstdio&gt;
+ # of file-dependencies: 1, # of module-dependencies: 0)
+---
+Sharpmake/Sharpmake.FunctionalTests/FastBuildFunctionalTest/codebase/SpanMultipleSrcDirs/additional_dir/extra_class2.cpp: ("extra_class2.h"
+ &lt;cstdio&gt;
+ # of file-dependencies: 1, # of module-dependencies: 0)
+---
+Sharpmake/Sharpmake.FunctionalTests/FastBuildFunctionalTest/codebase/SpanMultipleSrcDirs/additional_dir/extra_file.cpp: (&lt;cstdio&gt;
+ # of file-dependencies: 0, # of module-dependencies: 0)
+---
+Sharpmake/Sharpmake.FunctionalTests/FastBuildFunctionalTest/codebase/SpanMultipleSrcDirs/dir_individual_files/floating_file.cpp: (&lt;cstdio&gt;
+ # of file-dependencies: 0, # of module-dependencies: 0)
+---
+Sharpmake/Sharpmake.FunctionalTests/FastBuildFunctionalTest/codebase/SpanMultipleSrcDirs/dir_individual_files/floating_class.cpp: ("floating_class.h"
+ &lt;cstdio&gt;
+ # of file-dependencies: 1, # of module-dependencies: 0)
+---
+Sharpmake/Sharpmake.FunctionalTests/FastBuildFunctionalTest/codebase/SpanMultipleSrcDirs/dir_individual_files/floating_file_not_used.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+Sharpmake/Sharpmake.FunctionalTests/FastBuildFunctionalTest/codebase/SpanMultipleSrcDirs/dir_not_used/not_used.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+Sharpmake/Sharpmake.FunctionalTests/FastBuildFunctionalTest/codebase/RequirePreBuildStep/main.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+Sharpmake/Sharpmake.FunctionalTests/FastBuildFunctionalTest/codebase/PostBuildCopyDirTest/main.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+Sharpmake/Sharpmake.FunctionalTests/FastBuildFunctionalTest/codebase/MixCppAndCExe/main.cpp: ( &lt;iostream&gt;
+ # of file-dependencies: 1, # of module-dependencies: 0)
+---
+Sharpmake/Sharpmake.FunctionalTests/FastBuildFunctionalTest/codebase/PostBuildCopySingleFileTest/main.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+Sharpmake/Sharpmake.FunctionalTests/FastBuildFunctionalTest/codebase/PostBuildTestExecution/main.cpp: (&lt;iostream&gt;
+ # of file-dependencies: 0, # of module-dependencies: 0)
+---
+Sharpmake/Sharpmake.FunctionalTests/FastBuildFunctionalTest/codebase/PostBuildExecuteTest/main.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
 </t>
   </si>
@@ -10031,13 +10765,13 @@
 ---
 NetWinformControl/HZH_Controls/HZH_Controls/Controls/Text/TextBoxEx.Designer.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-NetWinformControl/HZH_Controls/HZH_Controls/Controls/Text/UCTextBoxEx.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+NetWinformControl/HZH_Controls/HZH_Controls/Controls/Text/UCTextBoxEx.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 NetWinformControl/HZH_Controls/HZH_Controls/Controls/Text/KeyBoardType.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
 NetWinformControl/HZH_Controls/HZH_Controls/Controls/Text/UCNumTextBox.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-NetWinformControl/HZH_Controls/HZH_Controls/Controls/Text/UCTextBoxEx.Designer.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+NetWinformControl/HZH_Controls/HZH_Controls/Controls/Text/UCTextBoxEx.Designer.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 NetWinformControl/HZH_Controls/HZH_Controls/Controls/Text/TextBoxTransparent.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -10309,7 +11043,7 @@
 ---
 NetWinformControl/HZH_Controls/HZH_Controls/Forms/FrmWaiting.Designer.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-NetWinformControl/HZH_Controls/HZH_Controls/Forms/FrmBack.Designer.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+NetWinformControl/HZH_Controls/HZH_Controls/Forms/FrmBack.Designer.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 NetWinformControl/HZH_Controls/HZH_Controls/Forms/FrmBase.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -10423,7 +11157,7 @@
 ---
 Sample-Projects/Windows Desktop/WIN32_MemoryAppLoader/MemoryAppLoader/Program.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-Sample-Projects/Windows Desktop/WIN32_MemoryAppLoader/MemoryAppLoader/CMemoryExecute.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+Sample-Projects/Windows Desktop/WIN32_MemoryAppLoader/MemoryAppLoader/CMemoryExecute.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 Sample-Projects/Windows Desktop/WIN32_MemoryAppLoader/MemoryAppLoader/Properties/AssemblyInfo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -10610,6 +11344,113 @@
 Sample-Projects/Windows Store/IpVersionDetection/IpVersionDetection/MainPage.xaml.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
 Sample-Projects/Windows Store/IpVersionDetection/IpVersionDetection/Properties/AssemblyInfo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample-Projects/Windows Desktop/WIN32_MemoryAppLoader/SampleApp/main.cpp: (&lt;iostream&gt;
+ # of file-dependencies: 0, # of module-dependencies: 0)
+---
+Sample-Projects/OpenGL/EarthExplorer/common/shader.cpp: (&lt;stdio.h&gt;
+ &lt;string&gt;
+ &lt;vector&gt;
+ &lt;iostream&gt;
+ &lt;fstream&gt;
+ &lt;algorithm&gt;
+ &lt;stdlib.h&gt;
+ &lt;string.h&gt;
+ &lt;GL/glew.h&gt;
+ # of file-dependencies: 2, # of module-dependencies: 2)
+---
+Sample-Projects/OpenGL/EarthExplorer/common/openglHelper.cpp: (&lt;math.h&gt;
+ # of file-dependencies: 2, # of module-dependencies: 1)
+---
+Sample-Projects/OpenGL/EarthExplorer/common/debugAxis.cpp: (# of file-dependencies: 2, # of module-dependencies: 0)
+---
+Sample-Projects/OpenGL/EarthExplorer/EarthExplorer/InfoPrinter.cpp: ("InfoPrinter.h"
+ # of file-dependencies: 1, # of module-dependencies: 1)
+---
+Sample-Projects/OpenGL/EarthExplorer/EarthExplorer/main.cpp: ("MapCamera.h"
+ "GlobeCamera.h"
+ "window.h"
+ "Terrain.h"
+ "InfoPrinter.h"
+ "GeoUtils.h"
+ &lt;algorithm&gt;
+ # of file-dependencies: 8, # of module-dependencies: 0)
+---
+Sample-Projects/OpenGL/EarthExplorer/EarthExplorer/Camera.cpp: ("Camera.h"
+ "TerrainPart.h"
+ "InfoPrinter.h"
+ "InfoIds.h"
+ &lt;algorithm&gt;
+ # of file-dependencies: 4, # of module-dependencies: 0)
+---
+Sample-Projects/OpenGL/EarthExplorer/EarthExplorer/Terrain.cpp: (&lt;Windows.h&gt;
+ "Terrain.h"
+ "GlobeCamera.h"
+ "InfoPrinter.h"
+ "InfoIds.h"
+ "GeoUtils.h"
+ &lt;algorithm&gt;
+ # of file-dependencies: 5, # of module-dependencies: 0)
+---
+Sample-Projects/OpenGL/EarthExplorer/EarthExplorer/MapCamera.cpp: ("MapCamera.h"
+ "GeoUtils.h"
+ "InfoPrinter.h"
+ "InfoIds.h"
+ &lt;algorithm&gt;
+ # of file-dependencies: 4, # of module-dependencies: 0)
+---
+Sample-Projects/OpenGL/EarthExplorer/EarthExplorer/TerrainPart.cpp: ("TerrainPart.h"
+ "GeoUtils.h"
+ &lt;iostream&gt;
+ &lt;sstream&gt;
+ &lt;fstream&gt;
+ &lt;algorithm&gt;
+ # of file-dependencies: 2, # of module-dependencies: 0)
+---
+Sample-Projects/OpenGL/EarthExplorer/EarthExplorer/TestGlobe.cpp: ("TestGlobe.h"
+ &lt;iostream&gt;
+ &lt;fstream&gt;
+ &lt;string&gt;
+ # of file-dependencies: 1, # of module-dependencies: 0)
+---
+Sample-Projects/OpenGL/EarthExplorer/EarthExplorer/window.cpp: ("window.h"
+ # of file-dependencies: 1, # of module-dependencies: 1)
+---
+Sample-Projects/OpenGL/EarthExplorer/EarthExplorer/GeoUtils.cpp: ("GeoUtils.h"
+ &lt;math.h&gt;
+ # of file-dependencies: 1, # of module-dependencies: 1)
+---
+Sample-Projects/OpenGL/EarthExplorer/EarthExplorer/GlobeCamera.cpp: ("GlobeCamera.h"
+ # of file-dependencies: 1, # of module-dependencies: 1)
+---
+Sample-Projects/OpenGL/EarthExplorer/EarthExplorer/Culling.cpp: ("Culling.h"
+ # of file-dependencies: 1, # of module-dependencies: 1)
+---
+Sample-Projects/OpenGL/RunningCrowd/common/shader.cpp: (&lt;stdio.h&gt;
+ &lt;string&gt;
+ &lt;vector&gt;
+ &lt;iostream&gt;
+ &lt;fstream&gt;
+ &lt;algorithm&gt;
+ &lt;stdlib.h&gt;
+ &lt;string.h&gt;
+ &lt;GL/glew.h&gt;
+ # of file-dependencies: 2, # of module-dependencies: 2)
+---
+Sample-Projects/OpenGL/RunningCrowd/common/openglHelper.cpp: (&lt;math.h&gt;
+ # of file-dependencies: 2, # of module-dependencies: 1)
+---
+Sample-Projects/OpenGL/RunningCrowd/common/debugAxis.cpp: (# of file-dependencies: 2, # of module-dependencies: 0)
+---
+Sample-Projects/OpenGL/RunningCrowd/RunningCrowd/human.cpp: ("human.h"
+ &lt;math.h&gt;
+ # of file-dependencies: 1, # of module-dependencies: 1)
+---
+Sample-Projects/OpenGL/RunningCrowd/RunningCrowd/main.cpp: (&lt;GLFW\glfw3native.h&gt;
+ # of file-dependencies: 2, # of module-dependencies: 1)
 ---
 </t>
   </si>
@@ -10703,7 +11544,7 @@
 ---
 Projects/LoLAccountChecker/Data/Rune.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-Projects/LoLAccountChecker/Data/LeagueData.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+Projects/LoLAccountChecker/Data/LeagueData.cs: (# of file-dependencies: 4, # of module-dependencies: 0)
 ---
 Projects/LoLAccountChecker/Data/ChampionData.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -10727,7 +11568,7 @@
 ---
 Projects/LoLAccountChecker/Views/AccountsWindow.xaml.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-Projects/LeagueSharp.Loader/App.xaml.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+Projects/LeagueSharp.Loader/App.xaml.cs: (# of file-dependencies: 19, # of module-dependencies: 0)
 ---
 Projects/LeagueSharp.Loader/Resources/DefaultProject/AssemblyInfo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -10737,7 +11578,7 @@
 ---
 Projects/LeagueSharp.Loader/Data/Config.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-Projects/LeagueSharp.Loader/Data/Directories.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+Projects/LeagueSharp.Loader/Data/Directories.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 Projects/LeagueSharp.Loader/Data/Log.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -10765,7 +11606,7 @@
 ---
 Projects/LeagueSharp.Loader/Class/ProjectFile.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-Projects/LeagueSharp.Loader/Class/PathRandomizer.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+Projects/LeagueSharp.Loader/Class/PathRandomizer.cs: (# of file-dependencies: 6, # of module-dependencies: 0)
 ---
 Projects/LeagueSharp.Loader/Class/Profile.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -10783,7 +11624,7 @@
 ---
 Projects/LeagueSharp.Loader/Class/Remoting.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-Projects/LeagueSharp.Loader/Class/Utility.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+Projects/LeagueSharp.Loader/Class/Utility.cs: (# of file-dependencies: 81, # of module-dependencies: 0)
 ---
 Projects/LeagueSharp.Loader/Class/GitUpdater.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -10803,7 +11644,7 @@
 ---
 Projects/XML-for-C/XML-DOM-2/XML_DOM_2/XML_DOM_2/Form1.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-Projects/XML-for-C/XML-DOM-2/XML_DOM_2/XML_DOM_2/Class_XL.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+Projects/XML-for-C/XML-DOM-2/XML_DOM_2/XML_DOM_2/Class_XL.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 Projects/XML-for-C/XML-DOM-2/XML_DOM_2/XML_DOM_2/Class_TT.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -10831,7 +11672,7 @@
 ---
 Projects/XML-for-C/XML-DOM/XML_DOM/XML_DOM/Form1.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-Projects/XML-for-C/XML-DOM/XML_DOM/XML_DOM/Class_XL.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+Projects/XML-for-C/XML-DOM/XML_DOM/XML_DOM/Class_XL.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 Projects/XML-for-C/XML-DOM/XML_DOM/XML_DOM/Class_TT.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -10901,7 +11742,7 @@
 ---
 Projects/XMLDOM/XMLDOM/ClassTT.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-Projects/XMLDOM/XMLDOM/ClassXL.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+Projects/XMLDOM/XMLDOM/ClassXL.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 Projects/XMLDOM/XMLDOM/Program.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -11005,31 +11846,31 @@
     <t>ZeroMQ</t>
   </si>
   <si>
-    <t xml:space="preserve">ZeroMQ/src/Req/Options.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+    <t xml:space="preserve">ZeroMQ/src/Req/Options.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 ZeroMQ/src/Req/Program.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
 ZeroMQ/src/Req/Properties/AssemblyInfo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-ZeroMQ/src/PullPushWorker/Options.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+ZeroMQ/src/PullPushWorker/Options.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 ZeroMQ/src/PullPushWorker/Program.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
 ZeroMQ/src/PullPushWorker/Properties/AssemblyInfo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-ZeroMQ/src/SyncSub/Options.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+ZeroMQ/src/SyncSub/Options.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 ZeroMQ/src/SyncSub/Program.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
 ZeroMQ/src/SyncSub/Properties/AssemblyInfo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-ZeroMQ/src/SyncPub/Options.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+ZeroMQ/src/SyncPub/Options.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 ZeroMQ/src/SyncPub/Program.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
 ZeroMQ/src/SyncPub/Properties/AssemblyInfo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-ZeroMQ/src/Push/Options.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+ZeroMQ/src/Push/Options.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 ZeroMQ/src/Push/Program.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -11049,25 +11890,25 @@
 ---
 ZeroMQ/src/MultipartMessages/Properties/AssemblyInfo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-ZeroMQ/src/Rep/Options.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+ZeroMQ/src/Rep/Options.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 ZeroMQ/src/Rep/Program.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
 ZeroMQ/src/Rep/Properties/AssemblyInfo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-ZeroMQ/src/Sub/Options.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+ZeroMQ/src/Sub/Options.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 ZeroMQ/src/Sub/Program.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
 ZeroMQ/src/Sub/Properties/AssemblyInfo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-ZeroMQ/src/Pub/Options.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+ZeroMQ/src/Pub/Options.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 ZeroMQ/src/Pub/Program.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
 ZeroMQ/src/Pub/Properties/AssemblyInfo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-ZeroMQ/src/Pull/Options.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+ZeroMQ/src/Pull/Options.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 ZeroMQ/src/Pull/Program.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -11217,7 +12058,7 @@
 ---
 abot/Abot/Poco/CrawlResult.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-abot/Abot.Demo/Program.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+abot/Abot.Demo/Program.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 abot/Abot.Demo/Properties/AssemblyInfo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -11377,7 +12218,7 @@
 ---
 abot/Abot2.Tests.Unit/Poco/CrawlContextTest.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-abot/Abot2.Tests.Unit/Poco/CrawledPageTest.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+abot/Abot2.Tests.Unit/Poco/CrawledPageTest.cs: (# of file-dependencies: 8, # of module-dependencies: 0)
 ---
 abot/Abot2.Tests.Unit/Poco/PageContentTest.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -11385,13 +12226,13 @@
 ---
 abot/Abot.Tests.Integration/CrawlWvtesting2.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-abot/Abot.Tests.Integration/AssemblySetup.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+abot/Abot.Tests.Integration/AssemblySetup.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 abot/Abot.Tests.Integration/CrawlSiteSimulator.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
 abot/Abot.Tests.Integration/Properties/AssemblyInfo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-abot/Abot.Tests.Unit/AssemblySetup.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+abot/Abot.Tests.Unit/AssemblySetup.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 abot/Abot.Tests.Unit/Core/RobotsDotTextTest.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -11475,7 +12316,7 @@
 ---
 abot/Abot.Tests.Unit/Poco/CrawlContextTest.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-abot/Abot.Tests.Unit/Poco/CrawledPageTest.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+abot/Abot.Tests.Unit/Poco/CrawledPageTest.cs: (# of file-dependencies: 8, # of module-dependencies: 0)
 ---
 abot/Abot.Tests.Unit/Poco/PageContentTest.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -11501,7 +12342,7 @@
 ---
 Projects_2/C# Projects/06- Picture Puzzle Game/Picture Puzzle/Program.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-Projects_2/C# Projects/06- Picture Puzzle Game/Picture Puzzle/Form1.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+Projects_2/C# Projects/06- Picture Puzzle Game/Picture Puzzle/Form1.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 Projects_2/C# Projects/06- Picture Puzzle Game/Picture Puzzle/Properties/Settings.Designer.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -11777,7 +12618,7 @@
 ---
 Geco/Test/Geco.Tests/Database/Model/Product.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-Geco/dist/Packaging/Template/Content/.Tools/Geco/Program.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+Geco/dist/Packaging/Template/Content/.Tools/Geco/Program.cs: (# of file-dependencies: 4, # of module-dependencies: 0)
 ---
 Geco/dist/Packaging/Template/Content/.Tools/Geco/Config/Task.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -11853,7 +12694,7 @@
 ---
 Geco/dist/GecoVSIX/Properties/AssemblyInfo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-Geco/dist/VSTemplate/.Tools/Geco/Program.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+Geco/dist/VSTemplate/.Tools/Geco/Program.cs: (# of file-dependencies: 4, # of module-dependencies: 0)
 ---
 Geco/dist/VSTemplate/.Tools/Geco/Config/Task.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -11951,7 +12792,7 @@
 ---
 csharp-proj/ToTango/absToTango/absToTango/sql.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-csharp-proj/ToTango/absToTango/absToTango/Program.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+csharp-proj/ToTango/absToTango/absToTango/Program.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 csharp-proj/ToTango/absToTango/absToTango/ToTangoExport.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -11973,7 +12814,7 @@
 ---
 csharp-proj/bike-distributor-refactor/BikeDistributor.Test/Properties/AssemblyInfo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-csharp-proj/bike-distributor-refactor/BikeDistributor/Order.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+csharp-proj/bike-distributor-refactor/BikeDistributor/Order.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 csharp-proj/bike-distributor-refactor/BikeDistributor/Bike.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -12083,7 +12924,7 @@
 ---
 csharp-proj/EmployeesApp/EmployeesApp.BusinessLogicTests/Properties/AssemblyInfo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-csharp-proj/JsonDeserialize/JsonDeserialize/Program.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+csharp-proj/JsonDeserialize/JsonDeserialize/Program.cs: (# of file-dependencies: 4, # of module-dependencies: 0)
 ---
 csharp-proj/JsonDeserialize/JsonDeserialize/UtilClasses.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -12131,7 +12972,7 @@
 ---
 csharp-proj/IntParse/IntParse/Properties/AssemblyInfo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-csharp-proj/WebApi_NetCore/WebApi_NetCore/Startup.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+csharp-proj/WebApi_NetCore/WebApi_NetCore/Startup.cs: (# of file-dependencies: 3, # of module-dependencies: 0)
 ---
 csharp-proj/WebApi_NetCore/WebApi_NetCore/Program.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -12481,7 +13322,7 @@
 ---
 vs-templates-revit-addin/src/StringLocalizer.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-vs-templates-revit-addin/src/App.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+vs-templates-revit-addin/src/App.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 vs-templates-revit-addin/src/RibbonHelper.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -13143,7 +13984,7 @@
 ---
 3_Project_Boost/Assets/Plugins/GitHub/Editor/UnityAPIWrapper.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-3_Project_Boost/Assets/Plugins/GitHub/Editor/ExtensionLoader.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+3_Project_Boost/Assets/Plugins/GitHub/Editor/ExtensionLoader.cs: (# of file-dependencies: 7, # of module-dependencies: 0)
 ---
 </t>
   </si>
@@ -13155,7 +13996,7 @@
 ---
 CSharpMath/CSharpMath.Editor.Tests.Visualizer/GraphicsContext.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-CSharpMath/CSharpMath.Avalonia.Example/MainWindow.xaml.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+CSharpMath/CSharpMath.Avalonia.Example/MainWindow.xaml.cs: (# of file-dependencies: 6, # of module-dependencies: 0)
 ---
 CSharpMath/CSharpMath.Avalonia.Example/MainView.xaml.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -13225,7 +14066,7 @@
 ---
 CSharpMath/CSharpMath.Rendering/BackEnd/GlyphFinder.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-CSharpMath/CSharpMath.Rendering/BackEnd/Fonts.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+CSharpMath/CSharpMath.Rendering/BackEnd/Fonts.cs: (# of file-dependencies: 4, # of module-dependencies: 0)
 ---
 CSharpMath/CSharpMath.Rendering/BackEnd/Glyph.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -13363,7 +14204,7 @@
 ---
 CSharpMath/CSharpMath.Xaml.Tests/TestXamarinForms.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-CSharpMath/CSharpMath.Xaml.Tests/Test.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+CSharpMath/CSharpMath.Xaml.Tests/Test.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 CSharpMath/CSharpMath.Xaml.Tests/TestAvalonia.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -13395,7 +14236,7 @@
 ---
 CSharpMath/CSharpMath.Apple/BackEnd/CtFontGlyphFinder.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-CSharpMath/CSharpMath.Apple/Resources/ManifestResources.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+CSharpMath/CSharpMath.Apple/Resources/ManifestResources.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 CSharpMath/CSharpMath.Apple/Resources/ManifestResourceProvider.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -13589,11 +14430,11 @@
 ---
 CSharpMath/CSharpMath/Atom/Atoms/Punctuation.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-CSharpMath/CSharpMath.Rendering.Tests/TestRendering.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+CSharpMath/CSharpMath.Rendering.Tests/TestRendering.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 CSharpMath/CSharpMath.Rendering.Tests/TestRenderingSharedData.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-CSharpMath/CSharpMath.Rendering.Tests/TestIcon.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+CSharpMath/CSharpMath.Rendering.Tests/TestIcon.cs: (# of file-dependencies: 6, # of module-dependencies: 0)
 ---
 CSharpMath/CSharpMath.Rendering.Tests/TestRenderingMathData.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -13611,7 +14452,7 @@
 ---
 CSharpMath/CSharpMath.Playground/Program.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-CSharpMath/CSharpMath.Playground/Paths.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+CSharpMath/CSharpMath.Playground/Paths.cs: (# of file-dependencies: 4, # of module-dependencies: 0)
 ---
 CSharpMath/CSharpMath.Playground/iosMathDemo/ToFormsMoreExamples.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -13653,7 +14494,7 @@
 ---
 third-edition/VS2012/Chapter_17/BeeAttack/BeeAttack/View/BeeAttackGameControl.xaml.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-third-edition/VS2012/Chapter_17/BeeAttack/BeeAttack/View/BeeControl.xaml.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+third-edition/VS2012/Chapter_17/BeeAttack/BeeAttack/View/BeeControl.xaml.cs: (# of file-dependencies: 36, # of module-dependencies: 0)
 ---
 third-edition/VS2012/Chapter_8/ListsShrinkAndGrowDynamically/ListsShrinkAndGrowDynamically/Shoe.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -13855,7 +14696,7 @@
 ---
 third-edition/VS2012/Chapter_14/JimmysComics/JimmysComics/PriceRange.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-third-edition/VS2012/Chapter_14/JimmysComics/JimmysComics/ComicQueryManager.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+third-edition/VS2012/Chapter_14/JimmysComics/JimmysComics/ComicQueryManager.cs: (# of file-dependencies: 184, # of module-dependencies: 0)
 ---
 third-edition/VS2012/Chapter_14/JimmysComics/JimmysComics/App.xaml.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -13893,9 +14734,9 @@
 ---
 third-edition/VS2012/Chapter_14/JimmysComicsSplitApp/JimmysComicsSplitApp/DataModel/PriceRange.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-third-edition/VS2012/Chapter_14/JimmysComicsSplitApp/JimmysComicsSplitApp/DataModel/ComicQueryManager.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-third-edition/VS2012/Chapter_14/JimmysComicsSplitApp/JimmysComicsSplitApp/DataModel/SampleDataSource.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+third-edition/VS2012/Chapter_14/JimmysComicsSplitApp/JimmysComicsSplitApp/DataModel/ComicQueryManager.cs: (# of file-dependencies: 184, # of module-dependencies: 0)
+---
+third-edition/VS2012/Chapter_14/JimmysComicsSplitApp/JimmysComicsSplitApp/DataModel/SampleDataSource.cs: (# of file-dependencies: 78, # of module-dependencies: 0)
 ---
 third-edition/VS2012/Chapter_14/JimmysComicsSplitApp/JimmysComicsSplitApp/DataModel/Comic.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -14105,12 +14946,29 @@
 ---
 third-edition/VS2012/Chapter_9/PoolPuzzle/Pineapple.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-third-edition/VS2012/Chapter_9/</t>
+third-edition/VS2012/Chap</t>
   </si>
   <si>
     <t>HeadFirst-OOAD</t>
   </si>
   <si>
+    <t xml:space="preserve">HeadFirst-OOAD/Chapter 10/LoadTester.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+HeadFirst-OOAD/Chapter 10/Connection.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+HeadFirst-OOAD/Chapter 10/SubwayLoader.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+HeadFirst-OOAD/Chapter 10/SubwayPrinter.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+HeadFirst-OOAD/Chapter 10/Subway.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+HeadFirst-OOAD/Chapter 10/Station.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+HeadFirst-OOAD/Chapter 10/SubwayTester.java: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">HeadFirst-OOAD/Ch 7 - Architecture/1 - Game System Framework/Program.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
 HeadFirst-OOAD/Ch 7 - Architecture/1 - Game System Framework/unit/Unit.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
@@ -14453,11 +15311,11 @@
 ---
 HeadFirst-OOAD/Ch 10 - The OOA&amp;D Lifecycle/Iteration 2 - Objectville Subway/Loader/SubwayLoader.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-HeadFirst-OOAD/Ch 10 - The OOA&amp;D Lifecycle/Iteration 2 - Objectville Subway/Tester/PrinterTester.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+HeadFirst-OOAD/Ch 10 - The OOA&amp;D Lifecycle/Iteration 2 - Objectville Subway/Tester/PrinterTester.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 HeadFirst-OOAD/Ch 10 - The OOA&amp;D Lifecycle/Iteration 2 - Objectville Subway/Tester/Tester.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-HeadFirst-OOAD/Ch 10 - The OOA&amp;D Lifecycle/Iteration 2 - Objectville Subway/Tester/LoadTester.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+HeadFirst-OOAD/Ch 10 - The OOA&amp;D Lifecycle/Iteration 2 - Objectville Subway/Tester/LoadTester.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 HeadFirst-OOAD/Ch 10 - The OOA&amp;D Lifecycle/Iteration 2 - Objectville Subway/SubwaySystem/Connection.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -14469,7 +15327,7 @@
 ---
 HeadFirst-OOAD/Ch 10 - The OOA&amp;D Lifecycle/Iteration 1 - Objectville Subway/Loader/SubwayLoader.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-HeadFirst-OOAD/Ch 10 - The OOA&amp;D Lifecycle/Iteration 1 - Objectville Subway/Tester/LoadTester.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+HeadFirst-OOAD/Ch 10 - The OOA&amp;D Lifecycle/Iteration 1 - Objectville Subway/Tester/LoadTester.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 HeadFirst-OOAD/Ch 10 - The OOA&amp;D Lifecycle/Iteration 1 - Objectville Subway/SubwaySystem/Connection.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -14511,7 +15369,7 @@
 ---
 LOIC/src/ReqState.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-LOIC/src/frmMain.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+LOIC/src/frmMain.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 LOIC/src/XXPFlooder.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -14519,47 +15377,47 @@
 ---
 LOIC/src/cHLDos.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-LOIC/src/IRC/Exceptions.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-LOIC/src/IRC/Logger.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-LOIC/src/IRC/EventArgs.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-LOIC/src/IRC/Consts.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-LOIC/src/IRC/Client/IrcMessageData.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-LOIC/src/IRC/Client/Delegates.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-LOIC/src/IRC/Client/IrcClient.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-LOIC/src/IRC/Client/ChannelUser.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-LOIC/src/IRC/Client/EventArgs.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-LOIC/src/IRC/Client/IrcUser.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-LOIC/src/IRC/Client/Channel.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-LOIC/src/IRC/Client/NonRfcChannel.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-LOIC/src/IRC/Client/NonRfcChannelUser.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-LOIC/src/IRC/Connection/Delegates.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-LOIC/src/IRC/Connection/IrcTcpClient.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-LOIC/src/IRC/Connection/EventArgs.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-LOIC/src/IRC/Connection/IrcProperties.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-LOIC/src/IRC/Connection/IrcConnection.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-LOIC/src/IRC/Properties/AssemblyInfo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-LOIC/src/IRC/Commands/Rfc2812.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-LOIC/src/IRC/Commands/IrcCommands.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+LOIC/src/IRC/Exceptions.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+LOIC/src/IRC/Logger.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+LOIC/src/IRC/EventArgs.cs: (# of file-dependencies: 3, # of module-dependencies: 0)
+---
+LOIC/src/IRC/Consts.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+LOIC/src/IRC/Client/IrcMessageData.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+LOIC/src/IRC/Client/Delegates.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
+---
+LOIC/src/IRC/Client/IrcClient.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+LOIC/src/IRC/Client/ChannelUser.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+LOIC/src/IRC/Client/EventArgs.cs: (# of file-dependencies: 3, # of module-dependencies: 0)
+---
+LOIC/src/IRC/Client/IrcUser.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+LOIC/src/IRC/Client/Channel.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+LOIC/src/IRC/Client/NonRfcChannel.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
+---
+LOIC/src/IRC/Client/NonRfcChannelUser.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
+---
+LOIC/src/IRC/Connection/Delegates.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
+---
+LOIC/src/IRC/Connection/IrcTcpClient.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+LOIC/src/IRC/Connection/EventArgs.cs: (# of file-dependencies: 3, # of module-dependencies: 0)
+---
+LOIC/src/IRC/Connection/IrcProperties.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+LOIC/src/IRC/Connection/IrcConnection.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+LOIC/src/IRC/Properties/AssemblyInfo.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
+---
+LOIC/src/IRC/Commands/Rfc2812.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+LOIC/src/IRC/Commands/IrcCommands.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 LOIC/src/Properties/Resources.Designer.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -14665,7 +15523,7 @@
 ---
 FlubuCore/src/Flubu.VisualStudio/Base/TaskRunner/TaskRunnerOption.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-FlubuCore/src/FlubuCore.WebApi/Startup.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
+FlubuCore/src/FlubuCore.WebApi/Startup.cs: (# of file-dependencies: 5, # of module-dependencies: 0)
 ---
 FlubuCore/src/FlubuCore.WebApi/Program.cs: (# of file-dependencies: 4, # of module-dependencies: 0)
 ---
@@ -14719,7 +15577,7 @@
 ---
 FlubuCore/src/FlubuCore.WebApi/Controllers/WebApp/LoginController.cs: (# of file-dependencies: 5, # of module-dependencies: 0)
 ---
-FlubuCore/src/FlubuCore.WebApi/Controllers/WebApp/UpdateCenterController.cs: (# of file-dependencies: 9, # of module-dependencies: 0)
+FlubuCore/src/FlubuCore.WebApi/Controllers/WebApp/UpdateCenterController.cs: (# of file-dependencies: 10, # of module-dependencies: 0)
 ---
 FlubuCore/src/FlubuCore.WebApi/Controllers/WebApp/ScriptController.cs: (# of file-dependencies: 4, # of module-dependencies: 0)
 ---
@@ -14817,7 +15675,7 @@
 ---
 FlubuCore/src/FlubuCore.Analyzers.Tests/Scripts/FromArgAnalyzerUnitTestsScripts.cs: (# of file-dependencies: 5, # of module-dependencies: 0)
 ---
-FlubuCore/src/FlubuCore.Tests/SolutionLoadingTests.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+FlubuCore/src/FlubuCore.Tests/SolutionLoadingTests.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 FlubuCore/src/FlubuCore.Tests/SimpleTaskWithDelay.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
@@ -14847,17 +15705,17 @@
 ---
 FlubuCore/src/FlubuCore.Tests/Scripting/NugetPackageResolverTests.cs: (# of file-dependencies: 3, # of module-dependencies: 0)
 ---
-FlubuCore/src/FlubuCore.Tests/Scripting/ScriptAnalyserTests.cs: (# of file-dependencies: 3, # of module-dependencies: 0)
----
-FlubuCore/src/FlubuCore.Tests/Scripting/ProjectFileAnalyzerTests.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
----
-FlubuCore/src/FlubuCore.Tests/Commanding/FlubuConfigurationProviderTests.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+FlubuCore/src/FlubuCore.Tests/Scripting/ScriptAnalyserTests.cs: (# of file-dependencies: 12, # of module-dependencies: 0)
+---
+FlubuCore/src/FlubuCore.Tests/Scripting/ProjectFileAnalyzerTests.cs: (# of file-dependencies: 22, # of module-dependencies: 0)
+---
+FlubuCore/src/FlubuCore.Tests/Commanding/FlubuConfigurationProviderTests.cs: (# of file-dependencies: 3, # of module-dependencies: 0)
 ---
 FlubuCore/src/FlubuCore.Tests/Commanding/CommandParserTests.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
-FlubuCore/src/FlubuCore.Tests/Tasks/FetchBuildVersionFromFileTaskTests.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
----
-FlubuCore/src/FlubuCore.Tests/Tasks/UpdateJsonFileTaskTests.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+FlubuCore/src/FlubuCore.Tests/Tasks/FetchBuildVersionFromFileTaskTests.cs: (# of file-dependencies: 4, # of module-dependencies: 0)
+---
+FlubuCore/src/FlubuCore.Tests/Tasks/UpdateJsonFileTaskTests.cs: (# of file-dependencies: 6, # of module-dependencies: 0)
 ---
 FlubuCore/src/FlubuCore.Tests/Tasks/CompileSolutionTaskUnitTests.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
@@ -14885,7 +15743,7 @@
 ---
 FlubuCore/src/FlubuCore.Tests/Tasks/DotnetCleanUnitTests.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-FlubuCore/src/FlubuCore.Tests/Tasks/MergeConfigurationFileTaskTests.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
+FlubuCore/src/FlubuCore.Tests/Tasks/MergeConfigurationFileTaskTests.cs: (# of file-dependencies: 3, # of module-dependencies: 0)
 ---
 FlubuCore/src/FlubuCore.Tests/Tasks/QueryServiceTests.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -14897,11 +15755,11 @@
 ---
 FlubuCore/src/FlubuCore.Tests/Tasks/UpdateNetCoreVersionTaskUnitTests.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-FlubuCore/src/FlubuCore.Tests/Tasks/LoadSolutionTaskTests.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+FlubuCore/src/FlubuCore.Tests/Tasks/LoadSolutionTaskTests.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 FlubuCore/src/FlubuCore.Tests/Tasks/BuildVersionTests.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
-FlubuCore/src/FlubuCore.Tests/Tasks/UpdateNetCoreVersionTaskIntegrationTests.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+FlubuCore/src/FlubuCore.Tests/Tasks/UpdateNetCoreVersionTaskIntegrationTests.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 FlubuCore/src/FlubuCore.Tests/Integration/IntegrationTestCollection.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -14927,7 +15785,7 @@
 ---
 FlubuCore/src/FlubuCore.Tests/Context/TaskContextResolveTaskTests.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
-FlubuCore/src/FlubuCore.Tests/Packaging/PackagingTests.cs: (# of file-dependencies: 3, # of module-dependencies: 0)
+FlubuCore/src/FlubuCore.Tests/Packaging/PackagingTests.cs: (# of file-dependencies: 4, # of module-dependencies: 0)
 ---
 FlubuCore/src/FlubuCore.Tests/Properties/AssemblyInfo.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
@@ -14943,11 +15801,11 @@
 ---
 FlubuCore/src/FlubuCore.Tests/TestData/BuildScripts/ForCreateTargetWithAttributes/BuildScriptParameterTypeMismatch.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
-FlubuCore/src/Deploy/DeploymentScript.cs: (# of file-dependencies: 4, # of module-dependencies: 0)
----
-FlubuCore/src/Deploy/DeployScript.cs: (# of file-dependencies: 4, # of module-dependencies: 0)
----
-FlubuCore/src/FlubuCore.WebApi.Updater/Program.cs: (# of file-dependencies: 6, # of module-dependencies: 0)
+FlubuCore/src/Deploy/DeploymentScript.cs: (# of file-dependencies: 17, # of module-dependencies: 0)
+---
+FlubuCore/src/Deploy/DeployScript.cs: (# of file-dependencies: 17, # of module-dependencies: 0)
+---
+FlubuCore/src/FlubuCore.WebApi.Updater/Program.cs: (# of file-dependencies: 13, # of module-dependencies: 0)
 ---
 FlubuCore/src/FlubuCore.GlobalTool/Program.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
@@ -14973,7 +15831,7 @@
 ---
 FlubuCore/src/FlubuCore/Scripting/IBuildScript.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-FlubuCore/src/FlubuCore/Scripting/DefaultBuildScript.cs: (# of file-dependencies: 5, # of module-dependencies: 0)
+FlubuCore/src/FlubuCore/Scripting/DefaultBuildScript.cs: (# of file-dependencies: 10, # of module-dependencies: 0)
 ---
 FlubuCore/src/FlubuCore/Scripting/NugetPackageResolver.cs: (# of file-dependencies: 8, # of module-dependencies: 0)
 ---
@@ -14983,7 +15841,7 @@
 ---
 FlubuCore/src/FlubuCore/Scripting/INugetPackageResolver.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
-FlubuCore/src/FlubuCore/Scripting/BuildScriptLocator.cs: (# of file-dependencies: 4, # of module-dependencies: 0)
+FlubuCore/src/FlubuCore/Scripting/BuildScriptLocator.cs: (# of file-dependencies: 34, # of module-dependencies: 0)
 ---
 FlubuCore/src/FlubuCore/Scripting/ScriptLoaderExtensions.cs: (# of file-dependencies: 4, # of module-dependencies: 0)
 ---
@@ -15043,7 +15901,7 @@
 ---
 FlubuCore/src/FlubuCore/Scripting/Analysis/IProjectFileAnalyzer.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
-FlubuCore/src/FlubuCore/Scripting/Analysis/ProjectFileAnalyzer.cs: (# of file-dependencies: 3, # of module-dependencies: 0)
+FlubuCore/src/FlubuCore/Scripting/Analysis/ProjectFileAnalyzer.cs: (# of file-dependencies: 51, # of module-dependencies: 0)
 ---
 FlubuCore/src/FlubuCore/Scripting/Analysis/Processors/AssemblyDirectiveProcessor.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
@@ -15093,7 +15951,7 @@
 ---
 FlubuCore/src/FlubuCore/IO/Wrappers/DirectoryWrapper.cs: (# of file-dependencies: 3, # of module-dependencies: 0)
 ---
-FlubuCore/src/FlubuCore/IO/Wrappers</t>
+FlubuCore/src/FlubuCore/IO</t>
   </si>
   <si>
     <t>DotRas</t>
@@ -15621,7 +16479,7 @@
 ---
 ProjectExodus/CsToKotlinTranspiler/WriteHelpers.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-ProjectExodus/CsToKotlinTranspiler/Program.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+ProjectExodus/CsToKotlinTranspiler/Program.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 ProjectExodus/CsToKotlinTranspiler/KotlinTranspilerVisitor.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -16247,23 +17105,23 @@
     <t>ClangVSx</t>
   </si>
   <si>
-    <t xml:space="preserve">ClangVSx/CVXSettings.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+    <t xml:space="preserve">ClangVSx/CVXSettings.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 ClangVSx/CommandBar1.Designer.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-ClangVSx/CVXConnect.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+ClangVSx/CVXConnect.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 ClangVSx/DTEHelper.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
 ClangVSx/AssemblyInfo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-ClangVSx/CVXOps.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-ClangVSx/CVXBuildSystem.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+ClangVSx/CVXOps.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
+---
+ClangVSx/CVXBuildSystem.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 ClangVSx/CVXSettings.Designer.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-ClangVSx/CVXRegistry.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+ClangVSx/CVXRegistry.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 </t>
   </si>
@@ -16835,7 +17693,7 @@
 ---
 BulletSharpUnity3d/Examples/Scenes/BulletSharpDemos/BulletSharpDemos/GImpactTestDemo/GImpactTestDemo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-BulletSharpUnity3d/Examples/Scenes/BulletSharpDemos/BulletSharpDemos/SerializeDemo/SerializeDemo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+BulletSharpUnity3d/Examples/Scenes/BulletSharpDemos/BulletSharpDemos/SerializeDemo/SerializeDemo.cs: (# of file-dependencies: 2, # of module-dependencies: 0)
 ---
 BulletSharpUnity3d/Examples/Scenes/BulletSharpDemos/BulletSharpDemos/BspDemo/BspConverter.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -17261,7 +18119,7 @@
 ---
 WebApiClient/App/Clients/IUserApi.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-WebApiClient/App/Clients/UserService.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+WebApiClient/App/Clients/UserService.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 WebApiClient/App/Clients/IUserApi.ParameterStyle.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -17369,7 +18227,7 @@
 ---
 hockeyapp-monotouch/src/HockeyApp/ApiDefinition.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-hockeyapp-monotouch/src/HockeyApp/libHockey.linkwith.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+hockeyapp-monotouch/src/HockeyApp/libHockey.linkwith.cs: (# of file-dependencies: 1, # of module-dependencies: 0)
 ---
 hockeyapp-monotouch/src/HockeyApp/StructsAndEnums.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -17449,6 +18307,15 @@
     <t>C-Sharp-Learning-Journey</t>
   </si>
   <si>
+    <t xml:space="preserve">C-Sharp-Learning-Journey/MNIST-Digits-Recognition/Training/install_mnist.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+C-Sharp-Learning-Journey/MNIST-Digits-Recognition/Training/Train_MNIST.py: (    # of file-dependencies: 2, # of module-dependencies: 1)
+---
+C-Sharp-Learning-Journey/MNIST-Digits-Recognition/Training/mnist_utils.py: (  # of file-dependencies: 0, # of module-dependencies: 1)
+---
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">C-Sharp-Learning-Journey/EmailFinder/main.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
 C-Sharp-Learning-Journey/EmailFinder/EmailFinder/Form1.Designer.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
@@ -17733,7 +18600,7 @@
 ---
 C-Sharp-Learning-Journey/ToDoList/ToDoList/Properties/AssemblyInfo.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-C-Sharp-Learning-Journey/MNIST-Digits-Recognition/Digitz/DigitRecognizer.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+C-Sharp-Learning-Journey/MNIST-Digits-Recognition/Digitz/DigitRecognizer.cs: (# of file-dependencies: 30, # of module-dependencies: 0)
 ---
 C-Sharp-Learning-Journey/MNIST-Digits-Recognition/Digitz/MainWindow.xaml.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -17747,7 +18614,7 @@
 ---
 C-Sharp-Learning-Journey/JobSalaryPrediction/SalaryData.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-C-Sharp-Learning-Journey/JobSalaryPrediction/Program.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
+C-Sharp-Learning-Journey/JobSalaryPrediction/Program.cs: (# of file-dependencies: 3, # of module-dependencies: 0)
 ---
 C-Sharp-Learning-Journey/JobSalaryPrediction/SalaryPrediction.cs: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -18493,7 +19360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:U101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18505,9 +19372,24 @@
     <col min="4" max="4" width="30.7109375" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
     <col min="6" max="6" width="130.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" customWidth="1"/>
+    <col min="11" max="11" width="130.7109375" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="13" width="30.7109375" customWidth="1"/>
+    <col min="14" max="14" width="30.7109375" customWidth="1"/>
+    <col min="15" max="15" width="30.7109375" customWidth="1"/>
+    <col min="16" max="16" width="130.7109375" customWidth="1"/>
+    <col min="17" max="17" width="30.7109375" customWidth="1"/>
+    <col min="18" max="18" width="30.7109375" customWidth="1"/>
+    <col min="19" max="19" width="30.7109375" customWidth="1"/>
+    <col min="20" max="20" width="30.7109375" customWidth="1"/>
+    <col min="21" max="21" width="130.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18526,13 +19408,58 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="150" customHeight="1">
+    <row r="2" spans="1:21" ht="150" customHeight="1">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>9</v>
@@ -18543,16 +19470,52 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>9</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>9</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="150" customHeight="1">
+    <row r="3" spans="1:21" ht="150" customHeight="1">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B3">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -18563,16 +19526,52 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
-        <v>9</v>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>74</v>
+      </c>
+      <c r="M3">
+        <v>8</v>
+      </c>
+      <c r="N3">
+        <v>16</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>8</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="150" customHeight="1">
+    <row r="4" spans="1:21" ht="150" customHeight="1">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B4">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -18583,16 +19582,52 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
-        <v>11</v>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>34</v>
+      </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>7</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="150" customHeight="1">
+    <row r="5" spans="1:21" ht="150" customHeight="1">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B5">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -18603,16 +19638,52 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
-        <v>13</v>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>26</v>
+      </c>
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>8</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="150" customHeight="1">
+    <row r="6" spans="1:21" ht="150" customHeight="1">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>53</v>
@@ -18623,16 +19694,52 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>15</v>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>53</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <v>53</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>53</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="150" customHeight="1">
+    <row r="7" spans="1:21" ht="150" customHeight="1">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B7">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -18643,16 +19750,52 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
-        <v>17</v>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>329</v>
+      </c>
+      <c r="M7">
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <v>7</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>7</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="150" customHeight="1">
+    <row r="8" spans="1:21" ht="150" customHeight="1">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B8">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -18663,16 +19806,52 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
-        <v>19</v>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>33</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>43</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>7</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="150" customHeight="1">
+    <row r="9" spans="1:21" ht="150" customHeight="1">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B9">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -18683,16 +19862,52 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" t="s">
-        <v>21</v>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>104</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>7</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="150" customHeight="1">
+    <row r="10" spans="1:21" ht="150" customHeight="1">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -18703,16 +19918,52 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" t="s">
-        <v>23</v>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="150" customHeight="1">
+    <row r="11" spans="1:21" ht="150" customHeight="1">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B11">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -18723,36 +19974,108 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" t="s">
-        <v>25</v>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>41</v>
+      </c>
+      <c r="M11">
+        <v>8</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>8</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="150" customHeight="1">
+    <row r="12" spans="1:21" ht="150" customHeight="1">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B12">
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>7</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12" t="s">
-        <v>27</v>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>423</v>
+      </c>
+      <c r="M12">
+        <v>7</v>
+      </c>
+      <c r="N12">
+        <v>20</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>7</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="150" customHeight="1">
+    <row r="13" spans="1:21" ht="150" customHeight="1">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -18763,16 +20086,52 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" t="s">
-        <v>29</v>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>14</v>
+      </c>
+      <c r="M13">
+        <v>8</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>8</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="150" customHeight="1">
+    <row r="14" spans="1:21" ht="150" customHeight="1">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B14">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -18783,16 +20142,52 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" t="s">
-        <v>31</v>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>122</v>
+      </c>
+      <c r="M14">
+        <v>7</v>
+      </c>
+      <c r="N14">
+        <v>9</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>7</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="150" customHeight="1">
+    <row r="15" spans="1:21" ht="150" customHeight="1">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B15">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -18803,16 +20198,52 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" t="s">
-        <v>33</v>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>65</v>
+      </c>
+      <c r="M15">
+        <v>7</v>
+      </c>
+      <c r="N15">
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>7</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="150" customHeight="1">
+    <row r="16" spans="1:21" ht="150" customHeight="1">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -18823,16 +20254,52 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" t="s">
-        <v>35</v>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>9</v>
+      </c>
+      <c r="M16">
+        <v>7</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>7</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="150" customHeight="1">
+    <row r="17" spans="1:20" ht="150" customHeight="1">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>65</v>
@@ -18843,16 +20310,52 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" t="s">
-        <v>37</v>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>65</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>11</v>
+      </c>
+      <c r="M17">
+        <v>65</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>65</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="150" customHeight="1">
+    <row r="18" spans="1:20" ht="150" customHeight="1">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -18863,36 +20366,108 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18" t="s">
-        <v>39</v>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>100</v>
+      </c>
+      <c r="M18">
+        <v>7</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>7</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="150" customHeight="1">
+    <row r="19" spans="1:20" ht="150" customHeight="1">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B19">
-        <v>1107</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>7</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19" t="s">
-        <v>41</v>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>7</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1107</v>
+      </c>
+      <c r="M19">
+        <v>7</v>
+      </c>
+      <c r="N19">
+        <v>108</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>7</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="150" customHeight="1">
+    <row r="20" spans="1:20" ht="150" customHeight="1">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B20">
-        <v>852</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>9</v>
@@ -18903,16 +20478,52 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20" t="s">
-        <v>43</v>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>9</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>852</v>
+      </c>
+      <c r="M20">
+        <v>9</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>9</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="150" customHeight="1">
+    <row r="21" spans="1:20" ht="150" customHeight="1">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>8</v>
@@ -18923,16 +20534,52 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" t="s">
-        <v>45</v>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>36</v>
+      </c>
+      <c r="M21">
+        <v>8</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>8</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="150" customHeight="1">
+    <row r="22" spans="1:20" ht="150" customHeight="1">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B22">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -18943,16 +20590,52 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" t="s">
-        <v>47</v>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>7</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>57</v>
+      </c>
+      <c r="M22">
+        <v>7</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>7</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="150" customHeight="1">
+    <row r="23" spans="1:20" ht="150" customHeight="1">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>63</v>
@@ -18963,16 +20646,52 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23" t="s">
-        <v>49</v>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>63</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <v>63</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>63</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="150" customHeight="1">
+    <row r="24" spans="1:20" ht="150" customHeight="1">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B24">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>91</v>
@@ -18983,16 +20702,52 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" t="s">
-        <v>51</v>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>91</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>33</v>
+      </c>
+      <c r="M24">
+        <v>91</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>91</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="150" customHeight="1">
+    <row r="25" spans="1:20" ht="150" customHeight="1">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>8</v>
@@ -19003,16 +20758,52 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" t="s">
-        <v>53</v>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>5</v>
+      </c>
+      <c r="M25">
+        <v>8</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>8</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="150" customHeight="1">
+    <row r="26" spans="1:20" ht="150" customHeight="1">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>69</v>
@@ -19023,16 +20814,52 @@
       <c r="E26">
         <v>0</v>
       </c>
-      <c r="F26" t="s">
-        <v>55</v>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>69</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>10</v>
+      </c>
+      <c r="M26">
+        <v>69</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>69</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="150" customHeight="1">
+    <row r="27" spans="1:20" ht="150" customHeight="1">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>36</v>
@@ -19043,76 +20870,223 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27" t="s">
-        <v>57</v>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>36</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>36</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>36</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="150" customHeight="1">
+    <row r="28" spans="1:20" ht="150" customHeight="1">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B28">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>11</v>
       </c>
       <c r="D28">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28" t="s">
-        <v>59</v>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>11</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>148</v>
+      </c>
+      <c r="M28">
+        <v>11</v>
+      </c>
+      <c r="N28">
+        <v>87</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>11</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="150" customHeight="1">
+    <row r="29" spans="1:20" ht="150" customHeight="1">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B29">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="C29">
         <v>10</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>76</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>92</v>
+      </c>
+      <c r="M29">
+        <v>10</v>
+      </c>
+      <c r="N29">
+        <v>36</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>10</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="150" customHeight="1">
+    <row r="30" spans="1:20" ht="150" customHeight="1">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B30">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>7</v>
       </c>
       <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>7</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>19</v>
+      </c>
+      <c r="M30">
+        <v>7</v>
+      </c>
+      <c r="N30">
         <v>6</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
-        <v>63</v>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>7</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="150" customHeight="1">
+    <row r="31" spans="1:20" ht="150" customHeight="1">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B31">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -19123,36 +21097,108 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31" t="s">
-        <v>65</v>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>7</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>53</v>
+      </c>
+      <c r="M31">
+        <v>7</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>7</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="150" customHeight="1">
+    <row r="32" spans="1:20" ht="150" customHeight="1">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B32">
-        <v>456</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>10</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32" t="s">
-        <v>67</v>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>10</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>456</v>
+      </c>
+      <c r="M32">
+        <v>10</v>
+      </c>
+      <c r="N32">
+        <v>12</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>10</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="150" customHeight="1">
+    <row r="33" spans="1:21" ht="150" customHeight="1">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B33">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -19163,16 +21209,52 @@
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="F33" t="s">
-        <v>69</v>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>7</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>38</v>
+      </c>
+      <c r="M33">
+        <v>7</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>7</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="150" customHeight="1">
+    <row r="34" spans="1:21" ht="150" customHeight="1">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B34">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <v>54</v>
@@ -19183,16 +21265,52 @@
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34" t="s">
-        <v>71</v>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>54</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>22</v>
+      </c>
+      <c r="M34">
+        <v>54</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>54</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="150" customHeight="1">
+    <row r="35" spans="1:21" ht="150" customHeight="1">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B35">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>8</v>
@@ -19203,16 +21321,52 @@
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35" t="s">
-        <v>73</v>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>8</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>65</v>
+      </c>
+      <c r="M35">
+        <v>8</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>8</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="150" customHeight="1">
+    <row r="36" spans="1:21" ht="150" customHeight="1">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B36">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>8</v>
@@ -19223,16 +21377,52 @@
       <c r="E36">
         <v>0</v>
       </c>
-      <c r="F36" t="s">
-        <v>75</v>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>8</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>62</v>
+      </c>
+      <c r="M36">
+        <v>8</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>8</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="150" customHeight="1">
+    <row r="37" spans="1:21" ht="150" customHeight="1">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B37">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <v>8</v>
@@ -19243,16 +21433,52 @@
       <c r="E37">
         <v>0</v>
       </c>
-      <c r="F37" t="s">
-        <v>77</v>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>8</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>17</v>
+      </c>
+      <c r="M37">
+        <v>8</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>8</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="150" customHeight="1">
+    <row r="38" spans="1:21" ht="150" customHeight="1">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B38">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>85</v>
@@ -19263,16 +21489,52 @@
       <c r="E38">
         <v>0</v>
       </c>
-      <c r="F38" t="s">
-        <v>79</v>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>85</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>21</v>
+      </c>
+      <c r="M38">
+        <v>85</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>85</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="150" customHeight="1">
+    <row r="39" spans="1:21" ht="150" customHeight="1">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B39">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <v>83</v>
@@ -19283,16 +21545,52 @@
       <c r="E39">
         <v>0</v>
       </c>
-      <c r="F39" t="s">
-        <v>81</v>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>83</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>7</v>
+      </c>
+      <c r="M39">
+        <v>83</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>83</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="150" customHeight="1">
+    <row r="40" spans="1:21" ht="150" customHeight="1">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B40">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>7</v>
@@ -19303,16 +21601,52 @@
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="F40" t="s">
-        <v>83</v>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>7</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>96</v>
+      </c>
+      <c r="M40">
+        <v>7</v>
+      </c>
+      <c r="N40">
+        <v>20</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>7</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="150" customHeight="1">
+    <row r="41" spans="1:21" ht="150" customHeight="1">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="B41">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -19323,16 +21657,52 @@
       <c r="E41">
         <v>0</v>
       </c>
-      <c r="F41" t="s">
-        <v>85</v>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>7</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>91</v>
+      </c>
+      <c r="M41">
+        <v>7</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>7</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="150" customHeight="1">
+    <row r="42" spans="1:21" ht="150" customHeight="1">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="B42">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>91</v>
@@ -19343,16 +21713,52 @@
       <c r="E42">
         <v>0</v>
       </c>
-      <c r="F42" t="s">
-        <v>87</v>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>91</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>22</v>
+      </c>
+      <c r="M42">
+        <v>91</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>91</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="150" customHeight="1">
+    <row r="43" spans="1:21" ht="150" customHeight="1">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="B43">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>8</v>
@@ -19363,36 +21769,111 @@
       <c r="E43">
         <v>0</v>
       </c>
-      <c r="F43" t="s">
-        <v>89</v>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>8</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>38</v>
+      </c>
+      <c r="M43">
+        <v>8</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>8</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="150" customHeight="1">
+    <row r="44" spans="1:21" ht="150" customHeight="1">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C44">
         <v>7</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>91</v>
+        <v>107</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>7</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>7</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>7</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="150" customHeight="1">
+    <row r="45" spans="1:21" ht="150" customHeight="1">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="B45">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="C45">
         <v>8</v>
@@ -19403,16 +21884,55 @@
       <c r="E45">
         <v>0</v>
       </c>
-      <c r="F45" t="s">
-        <v>93</v>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>8</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>78</v>
+      </c>
+      <c r="M45">
+        <v>8</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q45">
+        <v>2</v>
+      </c>
+      <c r="R45">
+        <v>8</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="150" customHeight="1">
+    <row r="46" spans="1:21" ht="150" customHeight="1">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B46">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C46">
         <v>7</v>
@@ -19423,16 +21943,52 @@
       <c r="E46">
         <v>0</v>
       </c>
-      <c r="F46" t="s">
-        <v>95</v>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>7</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>43</v>
+      </c>
+      <c r="M46">
+        <v>7</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>7</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="150" customHeight="1">
+    <row r="47" spans="1:21" ht="150" customHeight="1">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <v>72</v>
@@ -19443,16 +21999,52 @@
       <c r="E47">
         <v>0</v>
       </c>
-      <c r="F47" t="s">
-        <v>97</v>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>72</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>5</v>
+      </c>
+      <c r="M47">
+        <v>72</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>72</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="150" customHeight="1">
+    <row r="48" spans="1:21" ht="150" customHeight="1">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="B48">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C48">
         <v>7</v>
@@ -19463,16 +22055,52 @@
       <c r="E48">
         <v>0</v>
       </c>
-      <c r="F48" t="s">
-        <v>99</v>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>7</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>21</v>
+      </c>
+      <c r="M48">
+        <v>7</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>7</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="150" customHeight="1">
+    <row r="49" spans="1:21" ht="150" customHeight="1">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B49">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="C49">
         <v>8</v>
@@ -19483,16 +22111,52 @@
       <c r="E49">
         <v>0</v>
       </c>
-      <c r="F49" t="s">
-        <v>101</v>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>8</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>156</v>
+      </c>
+      <c r="M49">
+        <v>8</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>8</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="150" customHeight="1">
+    <row r="50" spans="1:21" ht="150" customHeight="1">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="B50">
-        <v>372</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <v>8</v>
@@ -19503,16 +22167,52 @@
       <c r="E50">
         <v>0</v>
       </c>
-      <c r="F50" t="s">
-        <v>103</v>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>8</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>372</v>
+      </c>
+      <c r="M50">
+        <v>8</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>8</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="150" customHeight="1">
+    <row r="51" spans="1:21" ht="150" customHeight="1">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C51">
         <v>7</v>
@@ -19523,16 +22223,52 @@
       <c r="E51">
         <v>0</v>
       </c>
-      <c r="F51" t="s">
-        <v>105</v>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>7</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>7</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>7</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="150" customHeight="1">
+    <row r="52" spans="1:21" ht="150" customHeight="1">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="B52">
-        <v>802</v>
+        <v>0</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -19543,16 +22279,52 @@
       <c r="E52">
         <v>0</v>
       </c>
-      <c r="F52" t="s">
-        <v>107</v>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>6</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>802</v>
+      </c>
+      <c r="M52">
+        <v>6</v>
+      </c>
+      <c r="N52">
+        <v>2</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>6</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="150" customHeight="1">
+    <row r="53" spans="1:21" ht="150" customHeight="1">
       <c r="A53" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="B53">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="C53">
         <v>8</v>
@@ -19563,16 +22335,52 @@
       <c r="E53">
         <v>0</v>
       </c>
-      <c r="F53" t="s">
-        <v>109</v>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>8</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>154</v>
+      </c>
+      <c r="M53">
+        <v>8</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>8</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="150" customHeight="1">
+    <row r="54" spans="1:21" ht="150" customHeight="1">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B54">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="C54">
         <v>7</v>
@@ -19583,16 +22391,52 @@
       <c r="E54">
         <v>0</v>
       </c>
-      <c r="F54" t="s">
-        <v>111</v>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>7</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>55</v>
+      </c>
+      <c r="M54">
+        <v>7</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>7</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="150" customHeight="1">
+    <row r="55" spans="1:21" ht="150" customHeight="1">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B55">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C55">
         <v>7</v>
@@ -19603,36 +22447,114 @@
       <c r="E55">
         <v>0</v>
       </c>
-      <c r="F55" t="s">
-        <v>113</v>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>7</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>11</v>
+      </c>
+      <c r="M55">
+        <v>7</v>
+      </c>
+      <c r="N55">
+        <v>2</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>7</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="150" customHeight="1">
+    <row r="56" spans="1:21" ht="150" customHeight="1">
       <c r="A56" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="B56">
-        <v>4719</v>
+        <v>170</v>
       </c>
       <c r="C56">
         <v>11</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>480</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>115</v>
+        <v>133</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>11</v>
+      </c>
+      <c r="I56">
+        <v>5</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>134</v>
+      </c>
+      <c r="L56">
+        <v>4719</v>
+      </c>
+      <c r="M56">
+        <v>11</v>
+      </c>
+      <c r="N56">
+        <v>2272</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>11</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="150" customHeight="1">
+    <row r="57" spans="1:21" ht="150" customHeight="1">
       <c r="A57" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="B57">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <v>7</v>
@@ -19643,36 +22565,108 @@
       <c r="E57">
         <v>0</v>
       </c>
-      <c r="F57" t="s">
-        <v>117</v>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>7</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>31</v>
+      </c>
+      <c r="M57">
+        <v>7</v>
+      </c>
+      <c r="N57">
+        <v>10</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>7</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="150" customHeight="1">
+    <row r="58" spans="1:21" ht="150" customHeight="1">
       <c r="A58" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="B58">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="C58">
         <v>8</v>
       </c>
       <c r="D58">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
-      <c r="F58" t="s">
-        <v>119</v>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>8</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>51</v>
+      </c>
+      <c r="M58">
+        <v>8</v>
+      </c>
+      <c r="N58">
+        <v>22</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>8</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="150" customHeight="1">
+    <row r="59" spans="1:21" ht="150" customHeight="1">
       <c r="A59" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B59">
-        <v>802</v>
+        <v>0</v>
       </c>
       <c r="C59">
         <v>9</v>
@@ -19683,16 +22677,58 @@
       <c r="E59">
         <v>0</v>
       </c>
-      <c r="F59" t="s">
-        <v>121</v>
+      <c r="G59">
+        <v>18</v>
+      </c>
+      <c r="H59">
+        <v>9</v>
+      </c>
+      <c r="I59">
+        <v>18</v>
+      </c>
+      <c r="J59">
+        <v>5</v>
+      </c>
+      <c r="K59" t="s">
+        <v>141</v>
+      </c>
+      <c r="L59">
+        <v>802</v>
+      </c>
+      <c r="M59">
+        <v>9</v>
+      </c>
+      <c r="N59">
+        <v>1619</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q59">
+        <v>15</v>
+      </c>
+      <c r="R59">
+        <v>9</v>
+      </c>
+      <c r="S59">
+        <v>10</v>
+      </c>
+      <c r="T59">
+        <v>11</v>
+      </c>
+      <c r="U59" t="s">
+        <v>143</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="150" customHeight="1">
+    <row r="60" spans="1:21" ht="150" customHeight="1">
       <c r="A60" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="B60">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>7</v>
@@ -19703,36 +22739,114 @@
       <c r="E60">
         <v>0</v>
       </c>
-      <c r="F60" t="s">
-        <v>123</v>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>7</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>101</v>
+      </c>
+      <c r="M60">
+        <v>7</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>7</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="150" customHeight="1">
+    <row r="61" spans="1:21" ht="150" customHeight="1">
       <c r="A61" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="B61">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="C61">
         <v>7</v>
       </c>
       <c r="D61">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
-      <c r="F61" t="s">
-        <v>125</v>
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61">
+        <v>7</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61">
+        <v>2</v>
+      </c>
+      <c r="K61" t="s">
+        <v>147</v>
+      </c>
+      <c r="L61">
+        <v>231</v>
+      </c>
+      <c r="M61">
+        <v>7</v>
+      </c>
+      <c r="N61">
+        <v>85</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q61">
+        <v>36</v>
+      </c>
+      <c r="R61">
+        <v>7</v>
+      </c>
+      <c r="S61">
+        <v>59</v>
+      </c>
+      <c r="T61">
+        <v>8</v>
+      </c>
+      <c r="U61" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="150" customHeight="1">
+    <row r="62" spans="1:21" ht="150" customHeight="1">
       <c r="A62" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B62">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="C62">
         <v>7</v>
@@ -19743,16 +22857,52 @@
       <c r="E62">
         <v>0</v>
       </c>
-      <c r="F62" t="s">
-        <v>127</v>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>7</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>82</v>
+      </c>
+      <c r="M62">
+        <v>7</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>7</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="150" customHeight="1">
+    <row r="63" spans="1:21" ht="150" customHeight="1">
       <c r="A63" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="B63">
-        <v>437</v>
+        <v>0</v>
       </c>
       <c r="C63">
         <v>10</v>
@@ -19763,16 +22913,52 @@
       <c r="E63">
         <v>0</v>
       </c>
-      <c r="F63" t="s">
-        <v>129</v>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>10</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>437</v>
+      </c>
+      <c r="M63">
+        <v>10</v>
+      </c>
+      <c r="N63">
+        <v>18</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>10</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="150" customHeight="1">
+    <row r="64" spans="1:21" ht="150" customHeight="1">
       <c r="A64" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="B64">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="C64">
         <v>8</v>
@@ -19783,16 +22969,55 @@
       <c r="E64">
         <v>0</v>
       </c>
-      <c r="F64" t="s">
-        <v>131</v>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>8</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>129</v>
+      </c>
+      <c r="M64">
+        <v>8</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q64">
+        <v>20</v>
+      </c>
+      <c r="R64">
+        <v>8</v>
+      </c>
+      <c r="S64">
+        <v>44</v>
+      </c>
+      <c r="T64">
+        <v>13</v>
+      </c>
+      <c r="U64" t="s">
+        <v>156</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="150" customHeight="1">
+    <row r="65" spans="1:20" ht="150" customHeight="1">
       <c r="A65" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="B65">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C65">
         <v>7</v>
@@ -19803,16 +23028,52 @@
       <c r="E65">
         <v>0</v>
       </c>
-      <c r="F65" t="s">
-        <v>133</v>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>7</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>29</v>
+      </c>
+      <c r="M65">
+        <v>7</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>7</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="150" customHeight="1">
+    <row r="66" spans="1:20" ht="150" customHeight="1">
       <c r="A66" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="B66">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="C66">
         <v>9</v>
@@ -19823,16 +23084,52 @@
       <c r="E66">
         <v>0</v>
       </c>
-      <c r="F66" t="s">
-        <v>135</v>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>9</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>154</v>
+      </c>
+      <c r="M66">
+        <v>9</v>
+      </c>
+      <c r="N66">
+        <v>115</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>9</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="150" customHeight="1">
+    <row r="67" spans="1:20" ht="150" customHeight="1">
       <c r="A67" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C67">
         <v>82</v>
@@ -19843,16 +23140,52 @@
       <c r="E67">
         <v>0</v>
       </c>
-      <c r="F67" t="s">
-        <v>137</v>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>82</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>2</v>
+      </c>
+      <c r="M67">
+        <v>82</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>82</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="150" customHeight="1">
+    <row r="68" spans="1:20" ht="150" customHeight="1">
       <c r="A68" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="B68">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C68">
         <v>7</v>
@@ -19863,16 +23196,52 @@
       <c r="E68">
         <v>0</v>
       </c>
-      <c r="F68" t="s">
-        <v>139</v>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>7</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>34</v>
+      </c>
+      <c r="M68">
+        <v>7</v>
+      </c>
+      <c r="N68">
+        <v>11</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>7</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="150" customHeight="1">
+    <row r="69" spans="1:20" ht="150" customHeight="1">
       <c r="A69" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="B69">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C69">
         <v>53</v>
@@ -19883,16 +23252,52 @@
       <c r="E69">
         <v>0</v>
       </c>
-      <c r="F69" t="s">
-        <v>141</v>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>53</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>18</v>
+      </c>
+      <c r="M69">
+        <v>53</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>53</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="150" customHeight="1">
+    <row r="70" spans="1:20" ht="150" customHeight="1">
       <c r="A70" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="B70">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="C70">
         <v>7</v>
@@ -19903,16 +23308,52 @@
       <c r="E70">
         <v>0</v>
       </c>
-      <c r="F70" t="s">
-        <v>143</v>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>7</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>179</v>
+      </c>
+      <c r="M70">
+        <v>7</v>
+      </c>
+      <c r="N70">
+        <v>19</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>7</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="150" customHeight="1">
+    <row r="71" spans="1:20" ht="150" customHeight="1">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="B71">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="C71">
         <v>7</v>
@@ -19923,16 +23364,52 @@
       <c r="E71">
         <v>0</v>
       </c>
-      <c r="F71" t="s">
-        <v>145</v>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>7</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>71</v>
+      </c>
+      <c r="M71">
+        <v>7</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>7</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="150" customHeight="1">
+    <row r="72" spans="1:20" ht="150" customHeight="1">
       <c r="A72" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="B72">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="C72">
         <v>7</v>
@@ -19943,36 +23420,108 @@
       <c r="E72">
         <v>0</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>7</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="L72">
         <v>147</v>
       </c>
+      <c r="M72">
+        <v>7</v>
+      </c>
+      <c r="N72">
+        <v>8</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>7</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:6" ht="150" customHeight="1">
+    <row r="73" spans="1:20" ht="150" customHeight="1">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="B73">
-        <v>462</v>
+        <v>0</v>
       </c>
       <c r="C73">
         <v>7</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
-      <c r="F73" t="s">
-        <v>149</v>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>7</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>462</v>
+      </c>
+      <c r="M73">
+        <v>7</v>
+      </c>
+      <c r="N73">
+        <v>16</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>7</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="150" customHeight="1">
+    <row r="74" spans="1:20" ht="150" customHeight="1">
       <c r="A74" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="B74">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C74">
         <v>102</v>
@@ -19983,16 +23532,52 @@
       <c r="E74">
         <v>0</v>
       </c>
-      <c r="F74" t="s">
-        <v>151</v>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>102</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>6</v>
+      </c>
+      <c r="M74">
+        <v>102</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>102</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="150" customHeight="1">
+    <row r="75" spans="1:20" ht="150" customHeight="1">
       <c r="A75" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="B75">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C75">
         <v>8</v>
@@ -20003,16 +23588,52 @@
       <c r="E75">
         <v>0</v>
       </c>
-      <c r="F75" t="s">
-        <v>153</v>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>8</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>6</v>
+      </c>
+      <c r="M75">
+        <v>8</v>
+      </c>
+      <c r="N75">
+        <v>2</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>8</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="150" customHeight="1">
+    <row r="76" spans="1:20" ht="150" customHeight="1">
       <c r="A76" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="B76">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="C76">
         <v>8</v>
@@ -20023,36 +23644,108 @@
       <c r="E76">
         <v>0</v>
       </c>
-      <c r="F76" t="s">
-        <v>155</v>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>8</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>53</v>
+      </c>
+      <c r="M76">
+        <v>8</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>8</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="150" customHeight="1">
+    <row r="77" spans="1:20" ht="150" customHeight="1">
       <c r="A77" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="B77">
-        <v>1352</v>
+        <v>0</v>
       </c>
       <c r="C77">
         <v>7</v>
       </c>
       <c r="D77">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
-      <c r="F77" t="s">
-        <v>157</v>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>7</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>1352</v>
+      </c>
+      <c r="M77">
+        <v>7</v>
+      </c>
+      <c r="N77">
+        <v>10163</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>7</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="150" customHeight="1">
+    <row r="78" spans="1:20" ht="150" customHeight="1">
       <c r="A78" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="B78">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C78">
         <v>8</v>
@@ -20063,36 +23756,108 @@
       <c r="E78">
         <v>0</v>
       </c>
-      <c r="F78" t="s">
-        <v>159</v>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>8</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>4</v>
+      </c>
+      <c r="M78">
+        <v>8</v>
+      </c>
+      <c r="N78">
+        <v>7</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>8</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="150" customHeight="1">
+    <row r="79" spans="1:20" ht="150" customHeight="1">
       <c r="A79" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="B79">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="C79">
         <v>10</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
-      <c r="F79" t="s">
-        <v>161</v>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>10</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>240</v>
+      </c>
+      <c r="M79">
+        <v>10</v>
+      </c>
+      <c r="N79">
+        <v>26</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>10</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="150" customHeight="1">
+    <row r="80" spans="1:20" ht="150" customHeight="1">
       <c r="A80" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="B80">
-        <v>1701</v>
+        <v>0</v>
       </c>
       <c r="C80">
         <v>8</v>
@@ -20103,36 +23868,111 @@
       <c r="E80">
         <v>0</v>
       </c>
-      <c r="F80" t="s">
-        <v>163</v>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>8</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>1701</v>
+      </c>
+      <c r="M80">
+        <v>8</v>
+      </c>
+      <c r="N80">
+        <v>1621</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>8</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="150" customHeight="1">
+    <row r="81" spans="1:20" ht="150" customHeight="1">
       <c r="A81" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="B81">
-        <v>183</v>
+        <v>7</v>
       </c>
       <c r="C81">
         <v>7</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>165</v>
+        <v>190</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>7</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>183</v>
+      </c>
+      <c r="M81">
+        <v>7</v>
+      </c>
+      <c r="N81">
+        <v>3</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>7</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="150" customHeight="1">
+    <row r="82" spans="1:20" ht="150" customHeight="1">
       <c r="A82" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="B82">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C82">
         <v>8</v>
@@ -20143,36 +23983,108 @@
       <c r="E82">
         <v>0</v>
       </c>
-      <c r="F82" t="s">
-        <v>167</v>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>8</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>41</v>
+      </c>
+      <c r="M82">
+        <v>8</v>
+      </c>
+      <c r="N82">
+        <v>33</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>8</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="150" customHeight="1">
+    <row r="83" spans="1:20" ht="150" customHeight="1">
       <c r="A83" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="B83">
-        <v>753</v>
+        <v>0</v>
       </c>
       <c r="C83">
         <v>9</v>
       </c>
       <c r="D83">
-        <v>1448</v>
+        <v>0</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
-      <c r="F83" t="s">
-        <v>169</v>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>9</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>753</v>
+      </c>
+      <c r="M83">
+        <v>9</v>
+      </c>
+      <c r="N83">
+        <v>1899</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>9</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="150" customHeight="1">
+    <row r="84" spans="1:20" ht="150" customHeight="1">
       <c r="A84" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="B84">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="C84">
         <v>8</v>
@@ -20183,16 +24095,52 @@
       <c r="E84">
         <v>0</v>
       </c>
-      <c r="F84" t="s">
-        <v>171</v>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>8</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>277</v>
+      </c>
+      <c r="M84">
+        <v>8</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>8</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="150" customHeight="1">
+    <row r="85" spans="1:20" ht="150" customHeight="1">
       <c r="A85" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="B85">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="C85">
         <v>8</v>
@@ -20203,16 +24151,52 @@
       <c r="E85">
         <v>0</v>
       </c>
-      <c r="F85" t="s">
-        <v>173</v>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>8</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>152</v>
+      </c>
+      <c r="M85">
+        <v>8</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>8</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="150" customHeight="1">
+    <row r="86" spans="1:20" ht="150" customHeight="1">
       <c r="A86" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="B86">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C86">
         <v>8</v>
@@ -20223,16 +24207,52 @@
       <c r="E86">
         <v>0</v>
       </c>
-      <c r="F86" t="s">
-        <v>175</v>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>8</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>31</v>
+      </c>
+      <c r="M86">
+        <v>8</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>8</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="150" customHeight="1">
+    <row r="87" spans="1:20" ht="150" customHeight="1">
       <c r="A87" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="B87">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="C87">
         <v>8</v>
@@ -20243,16 +24263,52 @@
       <c r="E87">
         <v>0</v>
       </c>
-      <c r="F87" t="s">
-        <v>177</v>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>8</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>81</v>
+      </c>
+      <c r="M87">
+        <v>8</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>8</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="150" customHeight="1">
+    <row r="88" spans="1:20" ht="150" customHeight="1">
       <c r="A88" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C88">
         <v>36</v>
@@ -20263,16 +24319,52 @@
       <c r="E88">
         <v>0</v>
       </c>
-      <c r="F88" t="s">
-        <v>179</v>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>36</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>2</v>
+      </c>
+      <c r="M88">
+        <v>36</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>36</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="150" customHeight="1">
+    <row r="89" spans="1:20" ht="150" customHeight="1">
       <c r="A89" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="B89">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C89">
         <v>7</v>
@@ -20283,16 +24375,52 @@
       <c r="E89">
         <v>0</v>
       </c>
-      <c r="F89" t="s">
-        <v>181</v>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>7</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>36</v>
+      </c>
+      <c r="M89">
+        <v>7</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>7</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="150" customHeight="1">
+    <row r="90" spans="1:20" ht="150" customHeight="1">
       <c r="A90" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="B90">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C90">
         <v>7</v>
@@ -20303,16 +24431,52 @@
       <c r="E90">
         <v>0</v>
       </c>
-      <c r="F90" t="s">
-        <v>183</v>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>7</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>9</v>
+      </c>
+      <c r="M90">
+        <v>7</v>
+      </c>
+      <c r="N90">
+        <v>5</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>7</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="150" customHeight="1">
+    <row r="91" spans="1:20" ht="150" customHeight="1">
       <c r="A91" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91">
         <v>56</v>
@@ -20323,16 +24487,52 @@
       <c r="E91">
         <v>0</v>
       </c>
-      <c r="F91" t="s">
-        <v>185</v>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>56</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>56</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>56</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="150" customHeight="1">
+    <row r="92" spans="1:20" ht="150" customHeight="1">
       <c r="A92" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="B92">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -20343,16 +24543,52 @@
       <c r="E92">
         <v>0</v>
       </c>
-      <c r="F92" t="s">
-        <v>187</v>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>91</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>41</v>
+      </c>
+      <c r="M92">
+        <v>91</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>91</v>
+      </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="150" customHeight="1">
+    <row r="93" spans="1:20" ht="150" customHeight="1">
       <c r="A93" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="B93">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C93">
         <v>73</v>
@@ -20363,16 +24599,52 @@
       <c r="E93">
         <v>0</v>
       </c>
-      <c r="F93" t="s">
-        <v>189</v>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>73</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>8</v>
+      </c>
+      <c r="M93">
+        <v>73</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>73</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="150" customHeight="1">
+    <row r="94" spans="1:20" ht="150" customHeight="1">
       <c r="A94" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="B94">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C94">
         <v>56</v>
@@ -20383,16 +24655,52 @@
       <c r="E94">
         <v>0</v>
       </c>
-      <c r="F94" t="s">
-        <v>191</v>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>56</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>4</v>
+      </c>
+      <c r="M94">
+        <v>56</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>56</v>
+      </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="150" customHeight="1">
+    <row r="95" spans="1:20" ht="150" customHeight="1">
       <c r="A95" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="B95">
-        <v>356</v>
+        <v>0</v>
       </c>
       <c r="C95">
         <v>8</v>
@@ -20403,16 +24711,52 @@
       <c r="E95">
         <v>0</v>
       </c>
-      <c r="F95" t="s">
-        <v>193</v>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>8</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>356</v>
+      </c>
+      <c r="M95">
+        <v>8</v>
+      </c>
+      <c r="N95">
+        <v>3</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>8</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="150" customHeight="1">
+    <row r="96" spans="1:20" ht="150" customHeight="1">
       <c r="A96" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="B96">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="C96">
         <v>8</v>
@@ -20423,16 +24767,52 @@
       <c r="E96">
         <v>0</v>
       </c>
-      <c r="F96" t="s">
-        <v>195</v>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>8</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>259</v>
+      </c>
+      <c r="M96">
+        <v>8</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>8</v>
+      </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="150" customHeight="1">
+    <row r="97" spans="1:20" ht="150" customHeight="1">
       <c r="A97" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="B97">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C97">
         <v>8</v>
@@ -20443,16 +24823,52 @@
       <c r="E97">
         <v>0</v>
       </c>
-      <c r="F97" t="s">
-        <v>197</v>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>8</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>5</v>
+      </c>
+      <c r="M97">
+        <v>8</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>8</v>
+      </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="150" customHeight="1">
+    <row r="98" spans="1:20" ht="150" customHeight="1">
       <c r="A98" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="B98">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C98">
         <v>72</v>
@@ -20463,56 +24879,167 @@
       <c r="E98">
         <v>0</v>
       </c>
-      <c r="F98" t="s">
-        <v>199</v>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>72</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>6</v>
+      </c>
+      <c r="M98">
+        <v>72</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>72</v>
+      </c>
+      <c r="S98">
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="150" customHeight="1">
+    <row r="99" spans="1:20" ht="150" customHeight="1">
       <c r="A99" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="B99">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C99">
         <v>8</v>
       </c>
       <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>8</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>23</v>
+      </c>
+      <c r="M99">
+        <v>8</v>
+      </c>
+      <c r="N99">
         <v>3</v>
       </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99" t="s">
-        <v>201</v>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>8</v>
+      </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="150" customHeight="1">
+    <row r="100" spans="1:20" ht="150" customHeight="1">
       <c r="A100" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="B100">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="C100">
         <v>8</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
-      <c r="F100" t="s">
-        <v>203</v>
+      <c r="G100">
+        <v>3</v>
+      </c>
+      <c r="H100">
+        <v>8</v>
+      </c>
+      <c r="I100">
+        <v>2</v>
+      </c>
+      <c r="J100">
+        <v>2</v>
+      </c>
+      <c r="K100" t="s">
+        <v>229</v>
+      </c>
+      <c r="L100">
+        <v>164</v>
+      </c>
+      <c r="M100">
+        <v>8</v>
+      </c>
+      <c r="N100">
+        <v>34</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>8</v>
+      </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="150" customHeight="1">
+    <row r="101" spans="1:20" ht="150" customHeight="1">
       <c r="A101" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="B101">
-        <v>854</v>
+        <v>0</v>
       </c>
       <c r="C101">
         <v>7</v>
@@ -20523,8 +25050,44 @@
       <c r="E101">
         <v>0</v>
       </c>
-      <c r="F101" t="s">
-        <v>205</v>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>7</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>854</v>
+      </c>
+      <c r="M101">
+        <v>7</v>
+      </c>
+      <c r="N101">
+        <v>100</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>7</v>
+      </c>
+      <c r="S101">
+        <v>0</v>
+      </c>
+      <c r="T101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
